--- a/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="146">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -952,7 +952,18 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCD5B4"/>
+          <bgColor rgb="FFFCD5B4"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1568,7 +1579,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1579,9 +1590,15 @@
       <c r="I7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="J7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
@@ -1618,7 +1635,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>23</v>
@@ -1629,9 +1646,15 @@
       <c r="I8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="J8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M8" s="37"/>
       <c r="N8" s="37"/>
       <c r="O8" s="37"/>
@@ -1668,7 +1691,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1679,9 +1702,15 @@
       <c r="I9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="J9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
       <c r="O9" s="37"/>
@@ -1714,11 +1743,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>23</v>
@@ -1729,9 +1758,15 @@
       <c r="I10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+      <c r="J10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
       <c r="O10" s="37"/>
@@ -1768,7 +1803,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>23</v>
@@ -1779,9 +1814,15 @@
       <c r="I11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
+      <c r="J11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M11" s="37"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
@@ -1818,7 +1859,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>23</v>
@@ -1829,9 +1870,15 @@
       <c r="I12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
+      <c r="J12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M12" s="37"/>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
@@ -1868,7 +1915,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>23</v>
@@ -1879,9 +1926,15 @@
       <c r="I13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
+      <c r="J13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
       <c r="O13" s="37"/>
@@ -1918,7 +1971,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>23</v>
@@ -1929,9 +1982,15 @@
       <c r="I14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
+      <c r="J14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
       <c r="O14" s="37"/>
@@ -1964,12 +2023,12 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F15" s="34">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F15" s="34">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="G15" s="35" t="s">
         <v>23</v>
       </c>
@@ -1979,9 +2038,15 @@
       <c r="I15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
+      <c r="J15" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
@@ -2018,7 +2083,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>23</v>
@@ -2029,9 +2094,15 @@
       <c r="I16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
+      <c r="J16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M16" s="37"/>
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
@@ -2068,7 +2139,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>23</v>
@@ -2079,9 +2150,15 @@
       <c r="I17" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
+      <c r="J17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
@@ -2118,7 +2195,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>23</v>
@@ -2129,9 +2206,15 @@
       <c r="I18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
+      <c r="J18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M18" s="37"/>
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
@@ -2168,7 +2251,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>23</v>
@@ -2179,9 +2262,15 @@
       <c r="I19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
+      <c r="J19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
       <c r="O19" s="37"/>
@@ -2218,7 +2307,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2229,9 +2318,15 @@
       <c r="I20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
+      <c r="J20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M20" s="37"/>
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
@@ -2268,7 +2363,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>23</v>
@@ -2279,9 +2374,15 @@
       <c r="I21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
+      <c r="J21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
       <c r="O21" s="37"/>
@@ -2318,7 +2419,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2329,9 +2430,15 @@
       <c r="I22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
+      <c r="J22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
       <c r="O22" s="37"/>
@@ -2368,7 +2475,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>23</v>
@@ -2379,9 +2486,15 @@
       <c r="I23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
+      <c r="J23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
       <c r="O23" s="37"/>
@@ -2414,11 +2527,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>23</v>
@@ -2429,9 +2542,15 @@
       <c r="I24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
+      <c r="J24" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M24" s="37"/>
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
@@ -2464,11 +2583,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2479,9 +2598,15 @@
       <c r="I25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
+      <c r="J25" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
@@ -2518,7 +2643,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2529,9 +2654,15 @@
       <c r="I26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
+      <c r="J26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
       <c r="O26" s="37"/>
@@ -2568,7 +2699,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>23</v>
@@ -2579,9 +2710,15 @@
       <c r="I27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
+      <c r="J27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
       <c r="O27" s="37"/>
@@ -2614,11 +2751,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -2629,9 +2766,15 @@
       <c r="I28" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
+      <c r="J28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
@@ -2668,7 +2811,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -2679,9 +2822,15 @@
       <c r="I29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
+      <c r="J29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M29" s="37"/>
       <c r="N29" s="37"/>
       <c r="O29" s="37"/>
@@ -2718,7 +2867,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -2729,9 +2878,15 @@
       <c r="I30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
+      <c r="J30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
@@ -2768,7 +2923,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -2779,9 +2934,15 @@
       <c r="I31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
+      <c r="J31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
@@ -2818,7 +2979,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -2829,9 +2990,15 @@
       <c r="I32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
+      <c r="J32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M32" s="37"/>
       <c r="N32" s="37"/>
       <c r="O32" s="37"/>
@@ -2868,7 +3035,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>23</v>
@@ -2879,9 +3046,15 @@
       <c r="I33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
+      <c r="J33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
       <c r="O33" s="37"/>
@@ -2918,7 +3091,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>23</v>
@@ -2929,9 +3102,15 @@
       <c r="I34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
+      <c r="J34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
       <c r="O34" s="37"/>
@@ -2968,7 +3147,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -2979,9 +3158,15 @@
       <c r="I35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
+      <c r="J35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
       <c r="O35" s="37"/>
@@ -3018,7 +3203,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>23</v>
@@ -3029,9 +3214,15 @@
       <c r="I36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
+      <c r="J36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M36" s="37"/>
       <c r="N36" s="37"/>
       <c r="O36" s="37"/>
@@ -3068,7 +3259,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3079,9 +3270,15 @@
       <c r="I37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
+      <c r="J37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M37" s="37"/>
       <c r="N37" s="37"/>
       <c r="O37" s="37"/>
@@ -3118,7 +3315,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>23</v>
@@ -3129,9 +3326,15 @@
       <c r="I38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
+      <c r="J38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M38" s="37"/>
       <c r="N38" s="37"/>
       <c r="O38" s="37"/>
@@ -3168,7 +3371,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>23</v>
@@ -3179,9 +3382,15 @@
       <c r="I39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
+      <c r="J39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
@@ -3214,11 +3423,11 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3229,9 +3438,15 @@
       <c r="I40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
+      <c r="J40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="M40" s="37"/>
       <c r="N40" s="37"/>
       <c r="O40" s="37"/>
@@ -3264,11 +3479,11 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>23</v>
@@ -3279,9 +3494,15 @@
       <c r="I41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
+      <c r="J41" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M41" s="37"/>
       <c r="N41" s="37"/>
       <c r="O41" s="37"/>
@@ -3318,7 +3539,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>23</v>
@@ -3329,9 +3550,15 @@
       <c r="I42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
+      <c r="J42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M42" s="37"/>
       <c r="N42" s="37"/>
       <c r="O42" s="37"/>
@@ -3364,11 +3591,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -3379,9 +3606,15 @@
       <c r="I43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
+      <c r="J43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M43" s="37"/>
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
@@ -3418,7 +3651,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>23</v>
@@ -3429,9 +3662,15 @@
       <c r="I44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
+      <c r="J44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M44" s="37"/>
       <c r="N44" s="37"/>
       <c r="O44" s="37"/>
@@ -3464,7 +3703,7 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
@@ -3479,9 +3718,15 @@
       <c r="I45" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
+      <c r="J45" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="M45" s="37"/>
       <c r="N45" s="37"/>
       <c r="O45" s="37"/>
@@ -3518,7 +3763,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>23</v>
@@ -3529,9 +3774,15 @@
       <c r="I46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
+      <c r="J46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M46" s="37"/>
       <c r="N46" s="37"/>
       <c r="O46" s="37"/>
@@ -3568,7 +3819,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>23</v>
@@ -3579,9 +3830,15 @@
       <c r="I47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
+      <c r="J47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M47" s="37"/>
       <c r="N47" s="37"/>
       <c r="O47" s="37"/>
@@ -3618,7 +3875,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>23</v>
@@ -3629,9 +3886,15 @@
       <c r="I48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
+      <c r="J48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M48" s="37"/>
       <c r="N48" s="37"/>
       <c r="O48" s="37"/>
@@ -3664,11 +3927,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>23</v>
@@ -3679,9 +3942,15 @@
       <c r="I49" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
+      <c r="J49" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M49" s="37"/>
       <c r="N49" s="37"/>
       <c r="O49" s="37"/>
@@ -3718,7 +3987,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>23</v>
@@ -3729,9 +3998,15 @@
       <c r="I50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
+      <c r="J50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M50" s="37"/>
       <c r="N50" s="37"/>
       <c r="O50" s="37"/>
@@ -3768,7 +4043,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>23</v>
@@ -3779,9 +4054,15 @@
       <c r="I51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
+      <c r="J51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M51" s="37"/>
       <c r="N51" s="37"/>
       <c r="O51" s="37"/>
@@ -3818,7 +4099,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>23</v>
@@ -3829,9 +4110,15 @@
       <c r="I52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
+      <c r="J52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M52" s="37"/>
       <c r="N52" s="37"/>
       <c r="O52" s="37"/>
@@ -3868,7 +4155,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>23</v>
@@ -3879,9 +4166,15 @@
       <c r="I53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
+      <c r="J53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M53" s="37"/>
       <c r="N53" s="37"/>
       <c r="O53" s="37"/>
@@ -3918,7 +4211,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>23</v>
@@ -3929,9 +4222,15 @@
       <c r="I54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
+      <c r="J54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M54" s="37"/>
       <c r="N54" s="37"/>
       <c r="O54" s="37"/>
@@ -3964,7 +4263,7 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
@@ -3979,9 +4278,15 @@
       <c r="I55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
+      <c r="J55" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="M55" s="37"/>
       <c r="N55" s="37"/>
       <c r="O55" s="37"/>
@@ -4018,7 +4323,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -4029,9 +4334,15 @@
       <c r="I56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
+      <c r="J56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M56" s="37"/>
       <c r="N56" s="37"/>
       <c r="O56" s="37"/>
@@ -4068,7 +4379,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -4079,9 +4390,15 @@
       <c r="I57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
+      <c r="J57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M57" s="37"/>
       <c r="N57" s="37"/>
       <c r="O57" s="37"/>
@@ -4118,7 +4435,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4129,9 +4446,15 @@
       <c r="I58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
+      <c r="J58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M58" s="37"/>
       <c r="N58" s="37"/>
       <c r="O58" s="37"/>
@@ -4164,11 +4487,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>23</v>
@@ -4179,9 +4502,15 @@
       <c r="I59" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
+      <c r="J59" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M59" s="37"/>
       <c r="N59" s="37"/>
       <c r="O59" s="37"/>
@@ -4214,11 +4543,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>23</v>
@@ -4229,9 +4558,15 @@
       <c r="I60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
+      <c r="J60" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M60" s="37"/>
       <c r="N60" s="37"/>
       <c r="O60" s="37"/>
@@ -4268,7 +4603,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>23</v>
@@ -4279,9 +4614,15 @@
       <c r="I61" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
+      <c r="J61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M61" s="37"/>
       <c r="N61" s="37"/>
       <c r="O61" s="37"/>
@@ -4318,7 +4659,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>23</v>
@@ -4329,9 +4670,15 @@
       <c r="I62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
+      <c r="J62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M62" s="37"/>
       <c r="N62" s="37"/>
       <c r="O62" s="37"/>
@@ -4368,7 +4715,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>23</v>
@@ -4379,9 +4726,15 @@
       <c r="I63" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
+      <c r="J63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M63" s="37"/>
       <c r="N63" s="37"/>
       <c r="O63" s="37"/>
@@ -4418,7 +4771,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>23</v>
@@ -4429,9 +4782,15 @@
       <c r="I64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
+      <c r="J64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M64" s="37"/>
       <c r="N64" s="37"/>
       <c r="O64" s="37"/>
@@ -4464,11 +4823,11 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>23</v>
@@ -4479,9 +4838,15 @@
       <c r="I65" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
+      <c r="J65" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M65" s="37"/>
       <c r="N65" s="37"/>
       <c r="O65" s="37"/>
@@ -4518,7 +4883,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -4529,9 +4894,15 @@
       <c r="I66" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
+      <c r="J66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M66" s="37"/>
       <c r="N66" s="37"/>
       <c r="O66" s="37"/>
@@ -4568,7 +4939,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>23</v>
@@ -4579,9 +4950,15 @@
       <c r="I67" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
+      <c r="J67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M67" s="37"/>
       <c r="N67" s="37"/>
       <c r="O67" s="37"/>
@@ -4618,7 +4995,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>23</v>
@@ -4629,9 +5006,15 @@
       <c r="I68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
+      <c r="J68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M68" s="37"/>
       <c r="N68" s="37"/>
       <c r="O68" s="37"/>
@@ -4664,12 +5047,12 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F69" s="34">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F69" s="34">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="G69" s="35" t="s">
         <v>23</v>
       </c>
@@ -4679,9 +5062,15 @@
       <c r="I69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
+      <c r="J69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="M69" s="37"/>
       <c r="N69" s="37"/>
       <c r="O69" s="37"/>
@@ -6601,6 +6990,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <conditionalFormatting sqref="G1:Z1000">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="146">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -81,13 +81,13 @@
     <t>P</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP575</t>
   </si>
   <si>
     <t>Agilan S</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2024DPM07</t>
@@ -1182,7 +1182,7 @@
     <col customWidth="1" min="1" max="1" width="7.13"/>
     <col customWidth="1" min="2" max="2" width="19.63"/>
     <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" min="4" max="4" width="10.13"/>
+    <col customWidth="1" min="4" max="4" width="12.13"/>
     <col customWidth="1" min="5" max="6" width="12.75"/>
     <col customWidth="1" min="7" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
@@ -1575,11 +1575,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1599,10 +1599,18 @@
       <c r="L7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="M7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
       <c r="S7" s="30"/>
@@ -1621,10 +1629,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>9</v>
@@ -1635,13 +1643,13 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>20</v>
@@ -1655,10 +1663,18 @@
       <c r="L8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
+      <c r="M8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
       <c r="S8" s="37"/>
@@ -1687,11 +1703,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1700,7 +1716,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J9" s="36" t="s">
         <v>20</v>
@@ -1711,10 +1727,18 @@
       <c r="L9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
+      <c r="M9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q9" s="37"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
@@ -1743,23 +1767,23 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10" s="36" t="s">
         <v>20</v>
@@ -1767,10 +1791,18 @@
       <c r="L10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
+      <c r="M10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q10" s="37"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
@@ -1803,13 +1835,13 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>20</v>
@@ -1823,10 +1855,18 @@
       <c r="L11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
+      <c r="M11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
@@ -1855,17 +1895,17 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>20</v>
@@ -1879,10 +1919,18 @@
       <c r="L12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
+      <c r="M12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q12" s="37"/>
       <c r="R12" s="37"/>
       <c r="S12" s="37"/>
@@ -1915,13 +1963,13 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>20</v>
@@ -1935,10 +1983,18 @@
       <c r="L13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
+      <c r="M13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
@@ -1967,17 +2023,17 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I14" s="36" t="s">
         <v>20</v>
@@ -1991,10 +2047,18 @@
       <c r="L14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
+      <c r="M14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
@@ -2027,30 +2091,38 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
+      <c r="M15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q15" s="37"/>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
@@ -2083,13 +2155,13 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>20</v>
@@ -2103,10 +2175,18 @@
       <c r="L16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
+      <c r="M16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q16" s="37"/>
       <c r="R16" s="37"/>
       <c r="S16" s="37"/>
@@ -2135,20 +2215,20 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J17" s="36" t="s">
         <v>20</v>
@@ -2159,10 +2239,18 @@
       <c r="L17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
+      <c r="M17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="37"/>
       <c r="R17" s="37"/>
       <c r="S17" s="37"/>
@@ -2195,13 +2283,13 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>20</v>
@@ -2215,10 +2303,18 @@
       <c r="L18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
+      <c r="M18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
       <c r="S18" s="37"/>
@@ -2251,13 +2347,13 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="36" t="s">
         <v>20</v>
@@ -2271,10 +2367,18 @@
       <c r="L19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
+      <c r="M19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q19" s="37"/>
       <c r="R19" s="37"/>
       <c r="S19" s="37"/>
@@ -2303,11 +2407,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2327,10 +2431,18 @@
       <c r="L20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
+      <c r="M20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q20" s="37"/>
       <c r="R20" s="37"/>
       <c r="S20" s="37"/>
@@ -2363,13 +2475,13 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>20</v>
@@ -2383,10 +2495,18 @@
       <c r="L21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
+      <c r="M21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q21" s="37"/>
       <c r="R21" s="37"/>
       <c r="S21" s="37"/>
@@ -2415,11 +2535,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2439,10 +2559,18 @@
       <c r="L22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
+      <c r="M22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
       <c r="S22" s="37"/>
@@ -2475,13 +2603,13 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I23" s="36" t="s">
         <v>20</v>
@@ -2495,10 +2623,18 @@
       <c r="L23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
+      <c r="M23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q23" s="37"/>
       <c r="R23" s="37"/>
       <c r="S23" s="37"/>
@@ -2527,23 +2663,23 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I24" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K24" s="36" t="s">
         <v>20</v>
@@ -2551,10 +2687,18 @@
       <c r="L24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
+      <c r="M24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
       <c r="S24" s="37"/>
@@ -2583,11 +2727,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2599,7 +2743,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K25" s="36" t="s">
         <v>20</v>
@@ -2607,10 +2751,18 @@
       <c r="L25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
+      <c r="M25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q25" s="37"/>
       <c r="R25" s="37"/>
       <c r="S25" s="37"/>
@@ -2639,11 +2791,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2663,10 +2815,18 @@
       <c r="L26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
+      <c r="M26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
@@ -2699,13 +2859,13 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I27" s="36" t="s">
         <v>20</v>
@@ -2719,10 +2879,18 @@
       <c r="L27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
+      <c r="M27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q27" s="37"/>
       <c r="R27" s="37"/>
       <c r="S27" s="37"/>
@@ -2751,11 +2919,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -2764,21 +2932,29 @@
         <v>20</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J28" s="36" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
+      <c r="M28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q28" s="37"/>
       <c r="R28" s="37"/>
       <c r="S28" s="37"/>
@@ -2811,7 +2987,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -2831,10 +3007,18 @@
       <c r="L29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
+      <c r="M29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q29" s="37"/>
       <c r="R29" s="37"/>
       <c r="S29" s="37"/>
@@ -2863,11 +3047,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -2887,10 +3071,18 @@
       <c r="L30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
+      <c r="M30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q30" s="37"/>
       <c r="R30" s="37"/>
       <c r="S30" s="37"/>
@@ -2919,11 +3111,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -2943,10 +3135,18 @@
       <c r="L31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
+      <c r="M31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q31" s="37"/>
       <c r="R31" s="37"/>
       <c r="S31" s="37"/>
@@ -2979,7 +3179,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -2999,10 +3199,18 @@
       <c r="L32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
+      <c r="M32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q32" s="37"/>
       <c r="R32" s="37"/>
       <c r="S32" s="37"/>
@@ -3035,13 +3243,13 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I33" s="36" t="s">
         <v>20</v>
@@ -3055,10 +3263,18 @@
       <c r="L33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
+      <c r="M33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q33" s="37"/>
       <c r="R33" s="37"/>
       <c r="S33" s="37"/>
@@ -3087,17 +3303,17 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I34" s="36" t="s">
         <v>20</v>
@@ -3111,10 +3327,18 @@
       <c r="L34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
+      <c r="M34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q34" s="37"/>
       <c r="R34" s="37"/>
       <c r="S34" s="37"/>
@@ -3147,7 +3371,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3167,10 +3391,18 @@
       <c r="L35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
+      <c r="M35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q35" s="37"/>
       <c r="R35" s="37"/>
       <c r="S35" s="37"/>
@@ -3203,10 +3435,10 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H36" s="36" t="s">
         <v>20</v>
@@ -3223,10 +3455,18 @@
       <c r="L36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
+      <c r="M36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q36" s="37"/>
       <c r="R36" s="37"/>
       <c r="S36" s="37"/>
@@ -3255,11 +3495,11 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3279,10 +3519,18 @@
       <c r="L37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
+      <c r="M37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q37" s="37"/>
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
@@ -3315,13 +3563,13 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I38" s="36" t="s">
         <v>20</v>
@@ -3335,10 +3583,18 @@
       <c r="L38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
+      <c r="M38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q38" s="37"/>
       <c r="R38" s="37"/>
       <c r="S38" s="37"/>
@@ -3371,13 +3627,13 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I39" s="36" t="s">
         <v>20</v>
@@ -3391,10 +3647,18 @@
       <c r="L39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
+      <c r="M39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q39" s="37"/>
       <c r="R39" s="37"/>
       <c r="S39" s="37"/>
@@ -3423,17 +3687,17 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I40" s="36" t="s">
         <v>20</v>
@@ -3442,15 +3706,23 @@
         <v>20</v>
       </c>
       <c r="K40" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q40" s="37"/>
       <c r="R40" s="37"/>
       <c r="S40" s="37"/>
@@ -3479,14 +3751,14 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H41" s="36" t="s">
         <v>20</v>
@@ -3495,7 +3767,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K41" s="36" t="s">
         <v>20</v>
@@ -3503,10 +3775,18 @@
       <c r="L41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
+      <c r="M41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q41" s="37"/>
       <c r="R41" s="37"/>
       <c r="S41" s="37"/>
@@ -3539,13 +3819,13 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I42" s="36" t="s">
         <v>20</v>
@@ -3559,10 +3839,18 @@
       <c r="L42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
+      <c r="M42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q42" s="37"/>
       <c r="R42" s="37"/>
       <c r="S42" s="37"/>
@@ -3595,7 +3883,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -3610,15 +3898,23 @@
         <v>20</v>
       </c>
       <c r="K43" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
+      <c r="M43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q43" s="37"/>
       <c r="R43" s="37"/>
       <c r="S43" s="37"/>
@@ -3651,13 +3947,13 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I44" s="36" t="s">
         <v>20</v>
@@ -3671,10 +3967,18 @@
       <c r="L44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
+      <c r="M44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q44" s="37"/>
       <c r="R44" s="37"/>
       <c r="S44" s="37"/>
@@ -3703,34 +4007,42 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I45" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L45" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q45" s="37"/>
       <c r="R45" s="37"/>
       <c r="S45" s="37"/>
@@ -3759,17 +4071,17 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H46" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I46" s="36" t="s">
         <v>20</v>
@@ -3783,10 +4095,18 @@
       <c r="L46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
+      <c r="M46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q46" s="37"/>
       <c r="R46" s="37"/>
       <c r="S46" s="37"/>
@@ -3815,17 +4135,17 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I47" s="36" t="s">
         <v>20</v>
@@ -3839,10 +4159,18 @@
       <c r="L47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
+      <c r="M47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q47" s="37"/>
       <c r="R47" s="37"/>
       <c r="S47" s="37"/>
@@ -3871,17 +4199,17 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I48" s="36" t="s">
         <v>20</v>
@@ -3895,10 +4223,18 @@
       <c r="L48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
+      <c r="M48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q48" s="37"/>
       <c r="R48" s="37"/>
       <c r="S48" s="37"/>
@@ -3927,23 +4263,23 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K49" s="36" t="s">
         <v>20</v>
@@ -3951,10 +4287,18 @@
       <c r="L49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
+      <c r="M49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q49" s="37"/>
       <c r="R49" s="37"/>
       <c r="S49" s="37"/>
@@ -3987,13 +4331,13 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I50" s="36" t="s">
         <v>20</v>
@@ -4007,10 +4351,18 @@
       <c r="L50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
+      <c r="M50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q50" s="37"/>
       <c r="R50" s="37"/>
       <c r="S50" s="37"/>
@@ -4043,13 +4395,13 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I51" s="36" t="s">
         <v>20</v>
@@ -4063,10 +4415,18 @@
       <c r="L51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
+      <c r="M51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q51" s="37"/>
       <c r="R51" s="37"/>
       <c r="S51" s="37"/>
@@ -4099,13 +4459,13 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I52" s="36" t="s">
         <v>20</v>
@@ -4119,10 +4479,18 @@
       <c r="L52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
+      <c r="M52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q52" s="37"/>
       <c r="R52" s="37"/>
       <c r="S52" s="37"/>
@@ -4155,13 +4523,13 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I53" s="36" t="s">
         <v>20</v>
@@ -4175,10 +4543,18 @@
       <c r="L53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
+      <c r="M53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q53" s="37"/>
       <c r="R53" s="37"/>
       <c r="S53" s="37"/>
@@ -4211,13 +4587,13 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I54" s="36" t="s">
         <v>20</v>
@@ -4231,10 +4607,18 @@
       <c r="L54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
+      <c r="M54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q54" s="37"/>
       <c r="R54" s="37"/>
       <c r="S54" s="37"/>
@@ -4263,34 +4647,42 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I55" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J55" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K55" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L55" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="M55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q55" s="37"/>
       <c r="R55" s="37"/>
       <c r="S55" s="37"/>
@@ -4323,7 +4715,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -4343,10 +4735,18 @@
       <c r="L56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
+      <c r="M56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q56" s="37"/>
       <c r="R56" s="37"/>
       <c r="S56" s="37"/>
@@ -4375,11 +4775,11 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -4399,10 +4799,18 @@
       <c r="L57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
+      <c r="M57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q57" s="37"/>
       <c r="R57" s="37"/>
       <c r="S57" s="37"/>
@@ -4431,11 +4839,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4455,10 +4863,18 @@
       <c r="L58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
+      <c r="M58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q58" s="37"/>
       <c r="R58" s="37"/>
       <c r="S58" s="37"/>
@@ -4487,23 +4903,23 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I59" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J59" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K59" s="36" t="s">
         <v>20</v>
@@ -4511,10 +4927,18 @@
       <c r="L59" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
+      <c r="M59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q59" s="37"/>
       <c r="R59" s="37"/>
       <c r="S59" s="37"/>
@@ -4543,14 +4967,14 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H60" s="36" t="s">
         <v>20</v>
@@ -4559,7 +4983,7 @@
         <v>20</v>
       </c>
       <c r="J60" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K60" s="36" t="s">
         <v>20</v>
@@ -4567,10 +4991,18 @@
       <c r="L60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
+      <c r="M60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q60" s="37"/>
       <c r="R60" s="37"/>
       <c r="S60" s="37"/>
@@ -4599,17 +5031,17 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I61" s="36" t="s">
         <v>20</v>
@@ -4623,10 +5055,18 @@
       <c r="L61" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
+      <c r="M61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q61" s="37"/>
       <c r="R61" s="37"/>
       <c r="S61" s="37"/>
@@ -4655,14 +5095,14 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G62" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H62" s="36" t="s">
         <v>20</v>
@@ -4679,10 +5119,18 @@
       <c r="L62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
+      <c r="M62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q62" s="37"/>
       <c r="R62" s="37"/>
       <c r="S62" s="37"/>
@@ -4711,17 +5159,17 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I63" s="36" t="s">
         <v>20</v>
@@ -4735,10 +5183,18 @@
       <c r="L63" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
+      <c r="M63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q63" s="37"/>
       <c r="R63" s="37"/>
       <c r="S63" s="37"/>
@@ -4771,13 +5227,13 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I64" s="36" t="s">
         <v>20</v>
@@ -4791,10 +5247,18 @@
       <c r="L64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
+      <c r="M64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q64" s="37"/>
       <c r="R64" s="37"/>
       <c r="S64" s="37"/>
@@ -4827,30 +5291,38 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J65" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K65" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L65" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
+      <c r="M65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q65" s="37"/>
       <c r="R65" s="37"/>
       <c r="S65" s="37"/>
@@ -4879,11 +5351,11 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -4903,10 +5375,18 @@
       <c r="L66" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
+      <c r="M66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q66" s="37"/>
       <c r="R66" s="37"/>
       <c r="S66" s="37"/>
@@ -4935,17 +5415,17 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I67" s="36" t="s">
         <v>20</v>
@@ -4959,10 +5439,18 @@
       <c r="L67" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
+      <c r="M67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q67" s="37"/>
       <c r="R67" s="37"/>
       <c r="S67" s="37"/>
@@ -4991,17 +5479,17 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I68" s="36" t="s">
         <v>20</v>
@@ -5015,10 +5503,18 @@
       <c r="L68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
+      <c r="M68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q68" s="37"/>
       <c r="R68" s="37"/>
       <c r="S68" s="37"/>
@@ -5051,13 +5547,13 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H69" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I69" s="36" t="s">
         <v>20</v>
@@ -5066,15 +5562,23 @@
         <v>20</v>
       </c>
       <c r="K69" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L69" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="M69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q69" s="37"/>
       <c r="R69" s="37"/>
       <c r="S69" s="37"/>

--- a/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="146">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1611,8 +1611,12 @@
       <c r="P7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="Q7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
@@ -1643,7 +1647,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>21</v>
@@ -1675,8 +1679,12 @@
       <c r="P8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
+      <c r="Q8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
@@ -1707,7 +1715,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1739,8 +1747,12 @@
       <c r="P9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
+      <c r="Q9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
       <c r="U9" s="37"/>
@@ -1771,7 +1783,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>21</v>
@@ -1803,8 +1815,12 @@
       <c r="P10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
+      <c r="Q10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
       <c r="U10" s="37"/>
@@ -1835,7 +1851,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>21</v>
@@ -1867,8 +1883,12 @@
       <c r="P11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
+      <c r="Q11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
       <c r="U11" s="37"/>
@@ -1895,11 +1915,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>21</v>
@@ -1931,8 +1951,12 @@
       <c r="P12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
+      <c r="Q12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
       <c r="U12" s="37"/>
@@ -1963,7 +1987,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>21</v>
@@ -1995,8 +2019,12 @@
       <c r="P13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
+      <c r="Q13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
       <c r="U13" s="37"/>
@@ -2027,7 +2055,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2059,8 +2087,12 @@
       <c r="P14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
+      <c r="Q14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S14" s="37"/>
       <c r="T14" s="37"/>
       <c r="U14" s="37"/>
@@ -2091,7 +2123,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>21</v>
@@ -2123,8 +2155,12 @@
       <c r="P15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
+      <c r="Q15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
@@ -2155,7 +2191,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>21</v>
@@ -2187,8 +2223,12 @@
       <c r="P16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
+      <c r="Q16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="37"/>
@@ -2219,7 +2259,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2251,8 +2291,12 @@
       <c r="P17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
+      <c r="Q17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
@@ -2283,7 +2327,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>21</v>
@@ -2315,8 +2359,12 @@
       <c r="P18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
+      <c r="Q18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
       <c r="U18" s="37"/>
@@ -2347,7 +2395,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>21</v>
@@ -2379,8 +2427,12 @@
       <c r="P19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
+      <c r="Q19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
       <c r="U19" s="37"/>
@@ -2411,7 +2463,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2443,8 +2495,12 @@
       <c r="P20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
+      <c r="Q20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
       <c r="U20" s="37"/>
@@ -2475,7 +2531,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -2507,8 +2563,12 @@
       <c r="P21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
+      <c r="Q21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
       <c r="U21" s="37"/>
@@ -2539,7 +2599,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2571,8 +2631,12 @@
       <c r="P22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
+      <c r="Q22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
@@ -2603,7 +2667,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>21</v>
@@ -2635,8 +2699,12 @@
       <c r="P23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
+      <c r="Q23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
@@ -2667,7 +2735,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>21</v>
@@ -2699,8 +2767,12 @@
       <c r="P24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
+      <c r="Q24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
       <c r="U24" s="37"/>
@@ -2731,7 +2803,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2763,8 +2835,12 @@
       <c r="P25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="Q25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
       <c r="U25" s="37"/>
@@ -2791,11 +2867,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2827,8 +2903,12 @@
       <c r="P26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
+      <c r="Q26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
       <c r="U26" s="37"/>
@@ -2859,7 +2939,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>21</v>
@@ -2891,8 +2971,12 @@
       <c r="P27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
+      <c r="Q27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
       <c r="U27" s="37"/>
@@ -2923,7 +3007,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -2955,8 +3039,12 @@
       <c r="P28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
+      <c r="Q28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
       <c r="U28" s="37"/>
@@ -2983,11 +3071,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -3019,8 +3107,12 @@
       <c r="P29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
+      <c r="Q29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S29" s="37"/>
       <c r="T29" s="37"/>
       <c r="U29" s="37"/>
@@ -3051,7 +3143,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -3083,8 +3175,12 @@
       <c r="P30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
+      <c r="Q30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
       <c r="U30" s="37"/>
@@ -3115,7 +3211,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3147,8 +3243,12 @@
       <c r="P31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
+      <c r="Q31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
@@ -3179,7 +3279,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -3211,8 +3311,12 @@
       <c r="P32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
+      <c r="Q32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
       <c r="U32" s="37"/>
@@ -3243,7 +3347,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>21</v>
@@ -3275,8 +3379,12 @@
       <c r="P33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
+      <c r="Q33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
       <c r="U33" s="37"/>
@@ -3307,7 +3415,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>21</v>
@@ -3339,8 +3447,12 @@
       <c r="P34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
+      <c r="Q34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
       <c r="U34" s="37"/>
@@ -3367,11 +3479,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3403,8 +3515,12 @@
       <c r="P35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
+      <c r="Q35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
       <c r="U35" s="37"/>
@@ -3435,7 +3551,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>21</v>
@@ -3467,8 +3583,12 @@
       <c r="P36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
+      <c r="Q36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S36" s="37"/>
       <c r="T36" s="37"/>
       <c r="U36" s="37"/>
@@ -3495,11 +3615,11 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3531,8 +3651,12 @@
       <c r="P37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
+      <c r="Q37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S37" s="37"/>
       <c r="T37" s="37"/>
       <c r="U37" s="37"/>
@@ -3563,7 +3687,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
@@ -3595,8 +3719,12 @@
       <c r="P38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
+      <c r="Q38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S38" s="37"/>
       <c r="T38" s="37"/>
       <c r="U38" s="37"/>
@@ -3627,7 +3755,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>21</v>
@@ -3659,8 +3787,12 @@
       <c r="P39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
+      <c r="Q39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
       <c r="U39" s="37"/>
@@ -3691,7 +3823,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3723,8 +3855,12 @@
       <c r="P40" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
+      <c r="Q40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S40" s="37"/>
       <c r="T40" s="37"/>
       <c r="U40" s="37"/>
@@ -3755,7 +3891,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>21</v>
@@ -3787,8 +3923,12 @@
       <c r="P41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
+      <c r="Q41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
       <c r="U41" s="37"/>
@@ -3819,7 +3959,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>21</v>
@@ -3851,8 +3991,12 @@
       <c r="P42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
+      <c r="Q42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S42" s="37"/>
       <c r="T42" s="37"/>
       <c r="U42" s="37"/>
@@ -3879,11 +4023,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -3915,8 +4059,12 @@
       <c r="P43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
+      <c r="Q43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S43" s="37"/>
       <c r="T43" s="37"/>
       <c r="U43" s="37"/>
@@ -3947,7 +4095,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>21</v>
@@ -3979,8 +4127,12 @@
       <c r="P44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
+      <c r="Q44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S44" s="37"/>
       <c r="T44" s="37"/>
       <c r="U44" s="37"/>
@@ -4007,11 +4159,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>21</v>
@@ -4020,7 +4172,7 @@
         <v>21</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J45" s="36" t="s">
         <v>21</v>
@@ -4043,8 +4195,12 @@
       <c r="P45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
+      <c r="Q45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S45" s="37"/>
       <c r="T45" s="37"/>
       <c r="U45" s="37"/>
@@ -4071,11 +4227,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>21</v>
@@ -4107,8 +4263,12 @@
       <c r="P46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
+      <c r="Q46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S46" s="37"/>
       <c r="T46" s="37"/>
       <c r="U46" s="37"/>
@@ -4139,7 +4299,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>21</v>
@@ -4171,8 +4331,12 @@
       <c r="P47" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
+      <c r="Q47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S47" s="37"/>
       <c r="T47" s="37"/>
       <c r="U47" s="37"/>
@@ -4203,7 +4367,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>21</v>
@@ -4235,8 +4399,12 @@
       <c r="P48" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
+      <c r="Q48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
       <c r="U48" s="37"/>
@@ -4267,7 +4435,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>21</v>
@@ -4299,8 +4467,12 @@
       <c r="P49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
+      <c r="Q49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
       <c r="U49" s="37"/>
@@ -4331,7 +4503,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>21</v>
@@ -4363,8 +4535,12 @@
       <c r="P50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
+      <c r="Q50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
       <c r="U50" s="37"/>
@@ -4395,7 +4571,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>21</v>
@@ -4427,8 +4603,12 @@
       <c r="P51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
+      <c r="Q51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S51" s="37"/>
       <c r="T51" s="37"/>
       <c r="U51" s="37"/>
@@ -4459,7 +4639,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>21</v>
@@ -4491,8 +4671,12 @@
       <c r="P52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
+      <c r="Q52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
       <c r="U52" s="37"/>
@@ -4523,7 +4707,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>21</v>
@@ -4555,8 +4739,12 @@
       <c r="P53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
+      <c r="Q53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S53" s="37"/>
       <c r="T53" s="37"/>
       <c r="U53" s="37"/>
@@ -4587,7 +4775,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>21</v>
@@ -4619,8 +4807,12 @@
       <c r="P54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
+      <c r="Q54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S54" s="37"/>
       <c r="T54" s="37"/>
       <c r="U54" s="37"/>
@@ -4651,7 +4843,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>21</v>
@@ -4683,8 +4875,12 @@
       <c r="P55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
+      <c r="Q55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
       <c r="U55" s="37"/>
@@ -4711,11 +4907,11 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -4747,8 +4943,12 @@
       <c r="P56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
+      <c r="Q56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
       <c r="U56" s="37"/>
@@ -4779,7 +4979,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -4811,8 +5011,12 @@
       <c r="P57" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
+      <c r="Q57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S57" s="37"/>
       <c r="T57" s="37"/>
       <c r="U57" s="37"/>
@@ -4843,7 +5047,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4875,8 +5079,12 @@
       <c r="P58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
+      <c r="Q58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S58" s="37"/>
       <c r="T58" s="37"/>
       <c r="U58" s="37"/>
@@ -4903,11 +5111,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -4939,8 +5147,12 @@
       <c r="P59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
+      <c r="Q59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S59" s="37"/>
       <c r="T59" s="37"/>
       <c r="U59" s="37"/>
@@ -4971,7 +5183,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>21</v>
@@ -5003,8 +5215,12 @@
       <c r="P60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
+      <c r="Q60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S60" s="37"/>
       <c r="T60" s="37"/>
       <c r="U60" s="37"/>
@@ -5031,11 +5247,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>21</v>
@@ -5067,8 +5283,12 @@
       <c r="P61" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
+      <c r="Q61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R61" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S61" s="37"/>
       <c r="T61" s="37"/>
       <c r="U61" s="37"/>
@@ -5099,7 +5319,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>21</v>
@@ -5131,8 +5351,12 @@
       <c r="P62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
+      <c r="Q62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S62" s="37"/>
       <c r="T62" s="37"/>
       <c r="U62" s="37"/>
@@ -5163,7 +5387,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>21</v>
@@ -5195,8 +5419,12 @@
       <c r="P63" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
+      <c r="Q63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S63" s="37"/>
       <c r="T63" s="37"/>
       <c r="U63" s="37"/>
@@ -5223,11 +5451,11 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -5259,8 +5487,12 @@
       <c r="P64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
+      <c r="Q64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S64" s="37"/>
       <c r="T64" s="37"/>
       <c r="U64" s="37"/>
@@ -5291,7 +5523,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>21</v>
@@ -5323,8 +5555,12 @@
       <c r="P65" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
+      <c r="Q65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S65" s="37"/>
       <c r="T65" s="37"/>
       <c r="U65" s="37"/>
@@ -5355,7 +5591,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -5387,8 +5623,12 @@
       <c r="P66" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
+      <c r="Q66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S66" s="37"/>
       <c r="T66" s="37"/>
       <c r="U66" s="37"/>
@@ -5415,11 +5655,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>21</v>
@@ -5451,8 +5691,12 @@
       <c r="P67" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
+      <c r="Q67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S67" s="37"/>
       <c r="T67" s="37"/>
       <c r="U67" s="37"/>
@@ -5483,7 +5727,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>21</v>
@@ -5515,8 +5759,12 @@
       <c r="P68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
+      <c r="Q68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S68" s="37"/>
       <c r="T68" s="37"/>
       <c r="U68" s="37"/>
@@ -5547,7 +5795,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>21</v>
@@ -5579,8 +5827,12 @@
       <c r="P69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
+      <c r="Q69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S69" s="37"/>
       <c r="T69" s="37"/>
       <c r="U69" s="37"/>
@@ -5617,7 +5869,7 @@
       <c r="N70" s="37"/>
       <c r="O70" s="37"/>
       <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
+      <c r="Q70" s="36"/>
       <c r="R70" s="37"/>
       <c r="S70" s="37"/>
       <c r="T70" s="37"/>

--- a/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="146">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1575,11 +1575,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1617,8 +1617,12 @@
       <c r="R7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
+      <c r="S7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
@@ -1643,11 +1647,11 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>21</v>
@@ -1685,8 +1689,12 @@
       <c r="R8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
+      <c r="S8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
@@ -1715,7 +1723,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1753,8 +1761,12 @@
       <c r="R9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
+      <c r="S9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
@@ -1783,7 +1795,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>21</v>
@@ -1821,8 +1833,12 @@
       <c r="R10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
+      <c r="S10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
@@ -1851,7 +1867,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>21</v>
@@ -1889,8 +1905,12 @@
       <c r="R11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
+      <c r="S11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U11" s="37"/>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
@@ -1919,7 +1939,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>21</v>
@@ -1957,8 +1977,12 @@
       <c r="R12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
+      <c r="S12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
@@ -1983,7 +2007,7 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
@@ -2025,8 +2049,12 @@
       <c r="R13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
+      <c r="S13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
@@ -2055,7 +2083,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2093,8 +2121,12 @@
       <c r="R14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
+      <c r="S14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U14" s="37"/>
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
@@ -2123,7 +2155,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>21</v>
@@ -2161,8 +2193,12 @@
       <c r="R15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
+      <c r="S15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U15" s="37"/>
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
@@ -2187,11 +2223,11 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>21</v>
@@ -2229,8 +2265,12 @@
       <c r="R16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
+      <c r="S16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U16" s="37"/>
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
@@ -2259,7 +2299,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2297,8 +2337,12 @@
       <c r="R17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
+      <c r="S17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U17" s="37"/>
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
@@ -2323,11 +2367,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>21</v>
@@ -2365,8 +2409,12 @@
       <c r="R18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
+      <c r="S18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U18" s="37"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
@@ -2395,7 +2443,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>21</v>
@@ -2433,8 +2481,12 @@
       <c r="R19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
+      <c r="S19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U19" s="37"/>
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
@@ -2463,7 +2515,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2501,8 +2553,12 @@
       <c r="R20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
+      <c r="S20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U20" s="37"/>
       <c r="V20" s="37"/>
       <c r="W20" s="37"/>
@@ -2531,7 +2587,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -2569,8 +2625,12 @@
       <c r="R21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
+      <c r="S21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U21" s="37"/>
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
@@ -2599,7 +2659,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2637,8 +2697,12 @@
       <c r="R22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
+      <c r="S22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U22" s="37"/>
       <c r="V22" s="37"/>
       <c r="W22" s="37"/>
@@ -2663,7 +2727,7 @@
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
@@ -2705,8 +2769,12 @@
       <c r="R23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
+      <c r="S23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U23" s="37"/>
       <c r="V23" s="37"/>
       <c r="W23" s="37"/>
@@ -2735,7 +2803,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>21</v>
@@ -2773,8 +2841,12 @@
       <c r="R24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
+      <c r="S24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U24" s="37"/>
       <c r="V24" s="37"/>
       <c r="W24" s="37"/>
@@ -2799,11 +2871,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2841,8 +2913,12 @@
       <c r="R25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
+      <c r="S25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U25" s="37"/>
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
@@ -2871,7 +2947,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2909,8 +2985,12 @@
       <c r="R26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
+      <c r="S26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U26" s="37"/>
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
@@ -2939,7 +3019,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>21</v>
@@ -2977,8 +3057,12 @@
       <c r="R27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
+      <c r="S27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U27" s="37"/>
       <c r="V27" s="37"/>
       <c r="W27" s="37"/>
@@ -3003,11 +3087,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -3045,8 +3129,12 @@
       <c r="R28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
+      <c r="S28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U28" s="37"/>
       <c r="V28" s="37"/>
       <c r="W28" s="37"/>
@@ -3071,11 +3159,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -3113,8 +3201,12 @@
       <c r="R29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
+      <c r="S29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U29" s="37"/>
       <c r="V29" s="37"/>
       <c r="W29" s="37"/>
@@ -3143,7 +3235,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -3181,8 +3273,12 @@
       <c r="R30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
+      <c r="S30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U30" s="37"/>
       <c r="V30" s="37"/>
       <c r="W30" s="37"/>
@@ -3211,7 +3307,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3249,8 +3345,12 @@
       <c r="R31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
+      <c r="S31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U31" s="37"/>
       <c r="V31" s="37"/>
       <c r="W31" s="37"/>
@@ -3279,7 +3379,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -3317,8 +3417,12 @@
       <c r="R32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
+      <c r="S32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U32" s="37"/>
       <c r="V32" s="37"/>
       <c r="W32" s="37"/>
@@ -3347,7 +3451,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>21</v>
@@ -3385,8 +3489,12 @@
       <c r="R33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
+      <c r="S33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U33" s="37"/>
       <c r="V33" s="37"/>
       <c r="W33" s="37"/>
@@ -3411,7 +3519,7 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
@@ -3453,8 +3561,12 @@
       <c r="R34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
+      <c r="S34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T34" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U34" s="37"/>
       <c r="V34" s="37"/>
       <c r="W34" s="37"/>
@@ -3479,11 +3591,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3521,8 +3633,12 @@
       <c r="R35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
+      <c r="S35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T35" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U35" s="37"/>
       <c r="V35" s="37"/>
       <c r="W35" s="37"/>
@@ -3551,7 +3667,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>21</v>
@@ -3589,8 +3705,12 @@
       <c r="R36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
+      <c r="S36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U36" s="37"/>
       <c r="V36" s="37"/>
       <c r="W36" s="37"/>
@@ -3619,7 +3739,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3657,8 +3777,12 @@
       <c r="R37" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
+      <c r="S37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U37" s="37"/>
       <c r="V37" s="37"/>
       <c r="W37" s="37"/>
@@ -3687,7 +3811,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
@@ -3725,8 +3849,12 @@
       <c r="R38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
+      <c r="S38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U38" s="37"/>
       <c r="V38" s="37"/>
       <c r="W38" s="37"/>
@@ -3755,7 +3883,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>21</v>
@@ -3793,8 +3921,12 @@
       <c r="R39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
+      <c r="S39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U39" s="37"/>
       <c r="V39" s="37"/>
       <c r="W39" s="37"/>
@@ -3823,7 +3955,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3861,8 +3993,12 @@
       <c r="R40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
+      <c r="S40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U40" s="37"/>
       <c r="V40" s="37"/>
       <c r="W40" s="37"/>
@@ -3891,7 +4027,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>21</v>
@@ -3929,8 +4065,12 @@
       <c r="R41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
+      <c r="S41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U41" s="37"/>
       <c r="V41" s="37"/>
       <c r="W41" s="37"/>
@@ -3955,11 +4095,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>21</v>
@@ -3997,8 +4137,12 @@
       <c r="R42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
+      <c r="S42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T42" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
       <c r="W42" s="37"/>
@@ -4027,7 +4171,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -4065,8 +4209,12 @@
       <c r="R43" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
+      <c r="S43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U43" s="37"/>
       <c r="V43" s="37"/>
       <c r="W43" s="37"/>
@@ -4095,7 +4243,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>21</v>
@@ -4133,8 +4281,12 @@
       <c r="R44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
+      <c r="S44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U44" s="37"/>
       <c r="V44" s="37"/>
       <c r="W44" s="37"/>
@@ -4159,7 +4311,7 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
@@ -4201,8 +4353,12 @@
       <c r="R45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
+      <c r="S45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T45" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U45" s="37"/>
       <c r="V45" s="37"/>
       <c r="W45" s="37"/>
@@ -4231,7 +4387,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>21</v>
@@ -4269,8 +4425,12 @@
       <c r="R46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
+      <c r="S46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U46" s="37"/>
       <c r="V46" s="37"/>
       <c r="W46" s="37"/>
@@ -4299,7 +4459,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>21</v>
@@ -4337,8 +4497,12 @@
       <c r="R47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
+      <c r="S47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U47" s="37"/>
       <c r="V47" s="37"/>
       <c r="W47" s="37"/>
@@ -4367,7 +4531,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>21</v>
@@ -4405,8 +4569,12 @@
       <c r="R48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
+      <c r="S48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U48" s="37"/>
       <c r="V48" s="37"/>
       <c r="W48" s="37"/>
@@ -4435,7 +4603,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>21</v>
@@ -4473,8 +4641,12 @@
       <c r="R49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
+      <c r="S49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T49" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U49" s="37"/>
       <c r="V49" s="37"/>
       <c r="W49" s="37"/>
@@ -4503,7 +4675,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>21</v>
@@ -4541,8 +4713,12 @@
       <c r="R50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
+      <c r="S50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U50" s="37"/>
       <c r="V50" s="37"/>
       <c r="W50" s="37"/>
@@ -4571,7 +4747,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>21</v>
@@ -4609,8 +4785,12 @@
       <c r="R51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
+      <c r="S51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T51" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U51" s="37"/>
       <c r="V51" s="37"/>
       <c r="W51" s="37"/>
@@ -4639,7 +4819,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>21</v>
@@ -4677,8 +4857,12 @@
       <c r="R52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
+      <c r="S52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T52" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U52" s="37"/>
       <c r="V52" s="37"/>
       <c r="W52" s="37"/>
@@ -4707,7 +4891,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>21</v>
@@ -4745,8 +4929,12 @@
       <c r="R53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
+      <c r="S53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U53" s="37"/>
       <c r="V53" s="37"/>
       <c r="W53" s="37"/>
@@ -4771,7 +4959,7 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
@@ -4813,8 +5001,12 @@
       <c r="R54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
+      <c r="S54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T54" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U54" s="37"/>
       <c r="V54" s="37"/>
       <c r="W54" s="37"/>
@@ -4843,7 +5035,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>21</v>
@@ -4881,8 +5073,12 @@
       <c r="R55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
+      <c r="S55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U55" s="37"/>
       <c r="V55" s="37"/>
       <c r="W55" s="37"/>
@@ -4911,7 +5107,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -4949,8 +5145,12 @@
       <c r="R56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
+      <c r="S56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U56" s="37"/>
       <c r="V56" s="37"/>
       <c r="W56" s="37"/>
@@ -4979,7 +5179,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -5017,8 +5217,12 @@
       <c r="R57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
+      <c r="S57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U57" s="37"/>
       <c r="V57" s="37"/>
       <c r="W57" s="37"/>
@@ -5043,11 +5247,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5085,8 +5289,12 @@
       <c r="R58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
+      <c r="S58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T58" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U58" s="37"/>
       <c r="V58" s="37"/>
       <c r="W58" s="37"/>
@@ -5115,7 +5323,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -5153,8 +5361,12 @@
       <c r="R59" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
+      <c r="S59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T59" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U59" s="37"/>
       <c r="V59" s="37"/>
       <c r="W59" s="37"/>
@@ -5183,7 +5395,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>21</v>
@@ -5221,8 +5433,12 @@
       <c r="R60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
+      <c r="S60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T60" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U60" s="37"/>
       <c r="V60" s="37"/>
       <c r="W60" s="37"/>
@@ -5251,7 +5467,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>21</v>
@@ -5289,8 +5505,12 @@
       <c r="R61" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
+      <c r="S61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U61" s="37"/>
       <c r="V61" s="37"/>
       <c r="W61" s="37"/>
@@ -5319,7 +5539,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>21</v>
@@ -5357,8 +5577,12 @@
       <c r="R62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
+      <c r="S62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T62" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U62" s="37"/>
       <c r="V62" s="37"/>
       <c r="W62" s="37"/>
@@ -5387,7 +5611,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>21</v>
@@ -5425,8 +5649,12 @@
       <c r="R63" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
+      <c r="S63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T63" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U63" s="37"/>
       <c r="V63" s="37"/>
       <c r="W63" s="37"/>
@@ -5455,7 +5683,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -5493,8 +5721,12 @@
       <c r="R64" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
+      <c r="S64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U64" s="37"/>
       <c r="V64" s="37"/>
       <c r="W64" s="37"/>
@@ -5523,7 +5755,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>21</v>
@@ -5561,8 +5793,12 @@
       <c r="R65" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
+      <c r="S65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T65" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U65" s="37"/>
       <c r="V65" s="37"/>
       <c r="W65" s="37"/>
@@ -5591,7 +5827,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -5629,8 +5865,12 @@
       <c r="R66" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
+      <c r="S66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T66" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U66" s="37"/>
       <c r="V66" s="37"/>
       <c r="W66" s="37"/>
@@ -5659,7 +5899,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>21</v>
@@ -5697,8 +5937,12 @@
       <c r="R67" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
+      <c r="S67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T67" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U67" s="37"/>
       <c r="V67" s="37"/>
       <c r="W67" s="37"/>
@@ -5727,7 +5971,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>21</v>
@@ -5765,8 +6009,12 @@
       <c r="R68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
+      <c r="S68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T68" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U68" s="37"/>
       <c r="V68" s="37"/>
       <c r="W68" s="37"/>
@@ -5795,7 +6043,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>21</v>
@@ -5833,8 +6081,12 @@
       <c r="R69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
+      <c r="S69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T69" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U69" s="37"/>
       <c r="V69" s="37"/>
       <c r="W69" s="37"/>
@@ -5872,7 +6124,7 @@
       <c r="Q70" s="36"/>
       <c r="R70" s="37"/>
       <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
+      <c r="T70" s="36"/>
       <c r="U70" s="37"/>
       <c r="V70" s="37"/>
       <c r="W70" s="37"/>
@@ -5910,7 +6162,7 @@
       <c r="Q71" s="37"/>
       <c r="R71" s="37"/>
       <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
+      <c r="T71" s="36"/>
       <c r="U71" s="37"/>
       <c r="V71" s="37"/>
       <c r="W71" s="37"/>

--- a/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="146">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1623,8 +1623,12 @@
       <c r="T7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
+      <c r="U7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
@@ -1651,7 +1655,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>21</v>
@@ -1695,8 +1699,12 @@
       <c r="T8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
+      <c r="U8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W8" s="37"/>
       <c r="X8" s="37"/>
       <c r="Y8" s="37"/>
@@ -1723,7 +1731,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1767,8 +1775,12 @@
       <c r="T9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
+      <c r="U9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="37"/>
@@ -1795,7 +1807,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>21</v>
@@ -1839,8 +1851,12 @@
       <c r="T10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
+      <c r="U10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W10" s="37"/>
       <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
@@ -1867,7 +1883,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>21</v>
@@ -1911,8 +1927,12 @@
       <c r="T11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
+      <c r="U11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W11" s="37"/>
       <c r="X11" s="37"/>
       <c r="Y11" s="37"/>
@@ -1939,7 +1959,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>21</v>
@@ -1983,8 +2003,12 @@
       <c r="T12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
+      <c r="U12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W12" s="37"/>
       <c r="X12" s="37"/>
       <c r="Y12" s="37"/>
@@ -2007,11 +2031,11 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>21</v>
@@ -2055,8 +2079,12 @@
       <c r="T13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
+      <c r="U13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W13" s="37"/>
       <c r="X13" s="37"/>
       <c r="Y13" s="37"/>
@@ -2083,7 +2111,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2127,8 +2155,12 @@
       <c r="T14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
+      <c r="U14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W14" s="37"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="37"/>
@@ -2155,7 +2187,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>21</v>
@@ -2199,8 +2231,12 @@
       <c r="T15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
+      <c r="U15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W15" s="37"/>
       <c r="X15" s="37"/>
       <c r="Y15" s="37"/>
@@ -2227,7 +2263,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>21</v>
@@ -2271,8 +2307,12 @@
       <c r="T16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
+      <c r="U16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W16" s="37"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
@@ -2299,7 +2339,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2343,8 +2383,12 @@
       <c r="T17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
+      <c r="U17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W17" s="37"/>
       <c r="X17" s="37"/>
       <c r="Y17" s="37"/>
@@ -2371,7 +2415,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>21</v>
@@ -2415,8 +2459,12 @@
       <c r="T18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
+      <c r="U18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W18" s="37"/>
       <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
@@ -2439,11 +2487,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>21</v>
@@ -2487,8 +2535,12 @@
       <c r="T19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
+      <c r="U19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W19" s="37"/>
       <c r="X19" s="37"/>
       <c r="Y19" s="37"/>
@@ -2515,7 +2567,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2559,8 +2611,12 @@
       <c r="T20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
+      <c r="U20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W20" s="37"/>
       <c r="X20" s="37"/>
       <c r="Y20" s="37"/>
@@ -2583,11 +2639,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -2631,8 +2687,12 @@
       <c r="T21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
+      <c r="U21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W21" s="37"/>
       <c r="X21" s="37"/>
       <c r="Y21" s="37"/>
@@ -2659,7 +2719,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2703,8 +2763,12 @@
       <c r="T22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
+      <c r="U22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W22" s="37"/>
       <c r="X22" s="37"/>
       <c r="Y22" s="37"/>
@@ -2731,7 +2795,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>21</v>
@@ -2775,8 +2839,12 @@
       <c r="T23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
+      <c r="U23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W23" s="37"/>
       <c r="X23" s="37"/>
       <c r="Y23" s="37"/>
@@ -2803,7 +2871,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>21</v>
@@ -2847,8 +2915,12 @@
       <c r="T24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
+      <c r="U24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W24" s="37"/>
       <c r="X24" s="37"/>
       <c r="Y24" s="37"/>
@@ -2875,7 +2947,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2919,8 +2991,12 @@
       <c r="T25" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
+      <c r="U25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W25" s="37"/>
       <c r="X25" s="37"/>
       <c r="Y25" s="37"/>
@@ -2943,11 +3019,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2991,8 +3067,12 @@
       <c r="T26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
+      <c r="U26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W26" s="37"/>
       <c r="X26" s="37"/>
       <c r="Y26" s="37"/>
@@ -3019,7 +3099,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>21</v>
@@ -3063,8 +3143,12 @@
       <c r="T27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
+      <c r="U27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W27" s="37"/>
       <c r="X27" s="37"/>
       <c r="Y27" s="37"/>
@@ -3087,11 +3171,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -3135,8 +3219,12 @@
       <c r="T28" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
+      <c r="U28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W28" s="37"/>
       <c r="X28" s="37"/>
       <c r="Y28" s="37"/>
@@ -3159,11 +3247,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -3207,8 +3295,12 @@
       <c r="T29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
+      <c r="U29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W29" s="37"/>
       <c r="X29" s="37"/>
       <c r="Y29" s="37"/>
@@ -3231,11 +3323,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -3279,8 +3371,12 @@
       <c r="T30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
+      <c r="U30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W30" s="37"/>
       <c r="X30" s="37"/>
       <c r="Y30" s="37"/>
@@ -3303,11 +3399,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3351,8 +3447,12 @@
       <c r="T31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
+      <c r="U31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W31" s="37"/>
       <c r="X31" s="37"/>
       <c r="Y31" s="37"/>
@@ -3375,7 +3475,7 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
@@ -3423,8 +3523,12 @@
       <c r="T32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
+      <c r="U32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W32" s="37"/>
       <c r="X32" s="37"/>
       <c r="Y32" s="37"/>
@@ -3451,7 +3555,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>21</v>
@@ -3495,8 +3599,12 @@
       <c r="T33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
+      <c r="U33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V33" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W33" s="37"/>
       <c r="X33" s="37"/>
       <c r="Y33" s="37"/>
@@ -3523,7 +3631,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>21</v>
@@ -3567,8 +3675,12 @@
       <c r="T34" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
+      <c r="U34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W34" s="37"/>
       <c r="X34" s="37"/>
       <c r="Y34" s="37"/>
@@ -3591,11 +3703,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3639,8 +3751,12 @@
       <c r="T35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
+      <c r="U35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V35" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W35" s="37"/>
       <c r="X35" s="37"/>
       <c r="Y35" s="37"/>
@@ -3667,7 +3783,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>21</v>
@@ -3711,8 +3827,12 @@
       <c r="T36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
+      <c r="U36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W36" s="37"/>
       <c r="X36" s="37"/>
       <c r="Y36" s="37"/>
@@ -3739,7 +3859,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3783,8 +3903,12 @@
       <c r="T37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
+      <c r="U37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V37" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W37" s="37"/>
       <c r="X37" s="37"/>
       <c r="Y37" s="37"/>
@@ -3811,7 +3935,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
@@ -3855,8 +3979,12 @@
       <c r="T38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
+      <c r="U38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V38" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W38" s="37"/>
       <c r="X38" s="37"/>
       <c r="Y38" s="37"/>
@@ -3879,11 +4007,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>21</v>
@@ -3927,8 +4055,12 @@
       <c r="T39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
+      <c r="U39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W39" s="37"/>
       <c r="X39" s="37"/>
       <c r="Y39" s="37"/>
@@ -3955,7 +4087,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3999,8 +4131,12 @@
       <c r="T40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
+      <c r="U40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V40" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W40" s="37"/>
       <c r="X40" s="37"/>
       <c r="Y40" s="37"/>
@@ -4027,7 +4163,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>21</v>
@@ -4071,8 +4207,12 @@
       <c r="T41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
+      <c r="U41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V41" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W41" s="37"/>
       <c r="X41" s="37"/>
       <c r="Y41" s="37"/>
@@ -4099,7 +4239,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>21</v>
@@ -4143,8 +4283,12 @@
       <c r="T42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
+      <c r="U42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V42" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W42" s="37"/>
       <c r="X42" s="37"/>
       <c r="Y42" s="37"/>
@@ -4167,11 +4311,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -4215,8 +4359,12 @@
       <c r="T43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
+      <c r="U43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V43" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W43" s="37"/>
       <c r="X43" s="37"/>
       <c r="Y43" s="37"/>
@@ -4243,7 +4391,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>21</v>
@@ -4287,8 +4435,12 @@
       <c r="T44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
+      <c r="U44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V44" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W44" s="37"/>
       <c r="X44" s="37"/>
       <c r="Y44" s="37"/>
@@ -4311,7 +4463,7 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
@@ -4359,8 +4511,12 @@
       <c r="T45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
+      <c r="U45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V45" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W45" s="37"/>
       <c r="X45" s="37"/>
       <c r="Y45" s="37"/>
@@ -4387,7 +4543,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>21</v>
@@ -4431,8 +4587,12 @@
       <c r="T46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
+      <c r="U46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V46" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W46" s="37"/>
       <c r="X46" s="37"/>
       <c r="Y46" s="37"/>
@@ -4459,7 +4619,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>21</v>
@@ -4503,8 +4663,12 @@
       <c r="T47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
+      <c r="U47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V47" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W47" s="37"/>
       <c r="X47" s="37"/>
       <c r="Y47" s="37"/>
@@ -4531,7 +4695,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>21</v>
@@ -4575,8 +4739,12 @@
       <c r="T48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
+      <c r="U48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V48" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W48" s="37"/>
       <c r="X48" s="37"/>
       <c r="Y48" s="37"/>
@@ -4603,7 +4771,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>21</v>
@@ -4647,8 +4815,12 @@
       <c r="T49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
+      <c r="U49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V49" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W49" s="37"/>
       <c r="X49" s="37"/>
       <c r="Y49" s="37"/>
@@ -4675,7 +4847,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>21</v>
@@ -4719,8 +4891,12 @@
       <c r="T50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
+      <c r="U50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V50" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W50" s="37"/>
       <c r="X50" s="37"/>
       <c r="Y50" s="37"/>
@@ -4743,11 +4919,11 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>21</v>
@@ -4791,8 +4967,12 @@
       <c r="T51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
+      <c r="U51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V51" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W51" s="37"/>
       <c r="X51" s="37"/>
       <c r="Y51" s="37"/>
@@ -4815,11 +4995,11 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>21</v>
@@ -4863,8 +5043,12 @@
       <c r="T52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
+      <c r="U52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V52" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W52" s="37"/>
       <c r="X52" s="37"/>
       <c r="Y52" s="37"/>
@@ -4891,7 +5075,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>21</v>
@@ -4935,8 +5119,12 @@
       <c r="T53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
+      <c r="U53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V53" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W53" s="37"/>
       <c r="X53" s="37"/>
       <c r="Y53" s="37"/>
@@ -4963,7 +5151,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>21</v>
@@ -5007,8 +5195,12 @@
       <c r="T54" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
+      <c r="U54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V54" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W54" s="37"/>
       <c r="X54" s="37"/>
       <c r="Y54" s="37"/>
@@ -5031,7 +5223,7 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
@@ -5079,8 +5271,12 @@
       <c r="T55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
+      <c r="U55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V55" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W55" s="37"/>
       <c r="X55" s="37"/>
       <c r="Y55" s="37"/>
@@ -5107,7 +5303,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -5151,8 +5347,12 @@
       <c r="T56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
+      <c r="U56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V56" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W56" s="37"/>
       <c r="X56" s="37"/>
       <c r="Y56" s="37"/>
@@ -5179,7 +5379,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -5223,8 +5423,12 @@
       <c r="T57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
+      <c r="U57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V57" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W57" s="37"/>
       <c r="X57" s="37"/>
       <c r="Y57" s="37"/>
@@ -5251,7 +5455,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5295,8 +5499,12 @@
       <c r="T58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
+      <c r="U58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V58" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W58" s="37"/>
       <c r="X58" s="37"/>
       <c r="Y58" s="37"/>
@@ -5323,7 +5531,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -5367,8 +5575,12 @@
       <c r="T59" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
+      <c r="U59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V59" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W59" s="37"/>
       <c r="X59" s="37"/>
       <c r="Y59" s="37"/>
@@ -5395,7 +5607,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>21</v>
@@ -5439,8 +5651,12 @@
       <c r="T60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
+      <c r="U60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V60" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W60" s="37"/>
       <c r="X60" s="37"/>
       <c r="Y60" s="37"/>
@@ -5467,7 +5683,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>21</v>
@@ -5511,8 +5727,12 @@
       <c r="T61" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
+      <c r="U61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V61" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W61" s="37"/>
       <c r="X61" s="37"/>
       <c r="Y61" s="37"/>
@@ -5535,11 +5755,11 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>21</v>
@@ -5583,8 +5803,12 @@
       <c r="T62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
+      <c r="U62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V62" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W62" s="37"/>
       <c r="X62" s="37"/>
       <c r="Y62" s="37"/>
@@ -5611,7 +5835,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>21</v>
@@ -5655,8 +5879,12 @@
       <c r="T63" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
+      <c r="U63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V63" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W63" s="37"/>
       <c r="X63" s="37"/>
       <c r="Y63" s="37"/>
@@ -5683,7 +5911,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -5727,8 +5955,12 @@
       <c r="T64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
+      <c r="U64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V64" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W64" s="37"/>
       <c r="X64" s="37"/>
       <c r="Y64" s="37"/>
@@ -5755,7 +5987,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>21</v>
@@ -5799,8 +6031,12 @@
       <c r="T65" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
+      <c r="U65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V65" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W65" s="37"/>
       <c r="X65" s="37"/>
       <c r="Y65" s="37"/>
@@ -5827,7 +6063,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -5871,8 +6107,12 @@
       <c r="T66" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
+      <c r="U66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V66" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W66" s="37"/>
       <c r="X66" s="37"/>
       <c r="Y66" s="37"/>
@@ -5899,7 +6139,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>21</v>
@@ -5943,8 +6183,12 @@
       <c r="T67" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
+      <c r="U67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V67" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W67" s="37"/>
       <c r="X67" s="37"/>
       <c r="Y67" s="37"/>
@@ -5971,7 +6215,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>21</v>
@@ -6015,8 +6259,12 @@
       <c r="T68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37"/>
+      <c r="U68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V68" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W68" s="37"/>
       <c r="X68" s="37"/>
       <c r="Y68" s="37"/>
@@ -6039,11 +6287,11 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>21</v>
@@ -6087,8 +6335,12 @@
       <c r="T69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
+      <c r="U69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V69" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W69" s="37"/>
       <c r="X69" s="37"/>
       <c r="Y69" s="37"/>
@@ -6125,8 +6377,8 @@
       <c r="R70" s="37"/>
       <c r="S70" s="37"/>
       <c r="T70" s="36"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="36"/>
       <c r="W70" s="37"/>
       <c r="X70" s="37"/>
       <c r="Y70" s="37"/>
@@ -6163,7 +6415,7 @@
       <c r="R71" s="37"/>
       <c r="S71" s="37"/>
       <c r="T71" s="36"/>
-      <c r="U71" s="37"/>
+      <c r="U71" s="36"/>
       <c r="V71" s="37"/>
       <c r="W71" s="37"/>
       <c r="X71" s="37"/>

--- a/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="146">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1181,10 +1181,11 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="7.13"/>
     <col customWidth="1" min="2" max="2" width="19.63"/>
-    <col customWidth="1" min="3" max="3" width="30.25"/>
+    <col customWidth="1" min="3" max="3" width="26.5"/>
     <col customWidth="1" min="4" max="4" width="12.13"/>
-    <col customWidth="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" min="7" max="26" width="10.75"/>
+    <col customWidth="1" min="5" max="5" width="10.75"/>
+    <col customWidth="1" min="6" max="6" width="12.75"/>
+    <col customWidth="1" min="7" max="26" width="5.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1579,7 +1580,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1629,8 +1630,12 @@
       <c r="V7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
+      <c r="W7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Y7" s="30"/>
       <c r="Z7" s="30"/>
       <c r="AA7" s="30"/>
@@ -1651,11 +1656,11 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>21</v>
@@ -1705,8 +1710,12 @@
       <c r="V8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
+      <c r="W8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y8" s="37"/>
       <c r="Z8" s="37"/>
       <c r="AA8" s="37"/>
@@ -1727,11 +1736,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1781,8 +1790,12 @@
       <c r="V9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
+      <c r="W9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
       <c r="AA9" s="37"/>
@@ -1807,7 +1820,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>21</v>
@@ -1857,8 +1870,12 @@
       <c r="V10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
+      <c r="W10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
       <c r="AA10" s="37"/>
@@ -1879,11 +1896,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>21</v>
@@ -1933,8 +1950,12 @@
       <c r="V11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
+      <c r="W11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y11" s="37"/>
       <c r="Z11" s="37"/>
       <c r="AA11" s="37"/>
@@ -1955,11 +1976,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>21</v>
@@ -2009,8 +2030,12 @@
       <c r="V12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
+      <c r="W12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y12" s="37"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
@@ -2035,7 +2060,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>21</v>
@@ -2085,8 +2110,12 @@
       <c r="V13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
+      <c r="W13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y13" s="37"/>
       <c r="Z13" s="37"/>
       <c r="AA13" s="37"/>
@@ -2111,7 +2140,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2161,8 +2190,12 @@
       <c r="V14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
+      <c r="W14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y14" s="37"/>
       <c r="Z14" s="37"/>
       <c r="AA14" s="37"/>
@@ -2187,7 +2220,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>21</v>
@@ -2237,8 +2270,12 @@
       <c r="V15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
+      <c r="W15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y15" s="37"/>
       <c r="Z15" s="37"/>
       <c r="AA15" s="37"/>
@@ -2263,7 +2300,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>21</v>
@@ -2313,8 +2350,12 @@
       <c r="V16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
+      <c r="W16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
       <c r="AA16" s="37"/>
@@ -2339,7 +2380,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2389,8 +2430,12 @@
       <c r="V17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
+      <c r="W17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y17" s="37"/>
       <c r="Z17" s="37"/>
       <c r="AA17" s="37"/>
@@ -2415,7 +2460,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>21</v>
@@ -2465,8 +2510,12 @@
       <c r="V18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
+      <c r="W18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y18" s="37"/>
       <c r="Z18" s="37"/>
       <c r="AA18" s="37"/>
@@ -2491,7 +2540,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>21</v>
@@ -2541,8 +2590,12 @@
       <c r="V19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
+      <c r="W19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X19" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y19" s="37"/>
       <c r="Z19" s="37"/>
       <c r="AA19" s="37"/>
@@ -2563,11 +2616,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2617,8 +2670,12 @@
       <c r="V20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
+      <c r="W20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X20" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y20" s="37"/>
       <c r="Z20" s="37"/>
       <c r="AA20" s="37"/>
@@ -2639,11 +2696,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -2693,8 +2750,12 @@
       <c r="V21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
+      <c r="W21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X21" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y21" s="37"/>
       <c r="Z21" s="37"/>
       <c r="AA21" s="37"/>
@@ -2715,11 +2776,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2769,8 +2830,12 @@
       <c r="V22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
+      <c r="W22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X22" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y22" s="37"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="37"/>
@@ -2795,7 +2860,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>21</v>
@@ -2845,8 +2910,12 @@
       <c r="V23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
+      <c r="W23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X23" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y23" s="37"/>
       <c r="Z23" s="37"/>
       <c r="AA23" s="37"/>
@@ -2871,7 +2940,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>21</v>
@@ -2921,8 +2990,12 @@
       <c r="V24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
+      <c r="W24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X24" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y24" s="37"/>
       <c r="Z24" s="37"/>
       <c r="AA24" s="37"/>
@@ -2943,11 +3016,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2997,8 +3070,12 @@
       <c r="V25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
+      <c r="W25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y25" s="37"/>
       <c r="Z25" s="37"/>
       <c r="AA25" s="37"/>
@@ -3023,7 +3100,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -3073,8 +3150,12 @@
       <c r="V26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
+      <c r="W26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X26" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y26" s="37"/>
       <c r="Z26" s="37"/>
       <c r="AA26" s="37"/>
@@ -3095,11 +3176,11 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>21</v>
@@ -3149,8 +3230,12 @@
       <c r="V27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
+      <c r="W27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y27" s="37"/>
       <c r="Z27" s="37"/>
       <c r="AA27" s="37"/>
@@ -3171,11 +3256,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -3225,8 +3310,12 @@
       <c r="V28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
+      <c r="W28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y28" s="37"/>
       <c r="Z28" s="37"/>
       <c r="AA28" s="37"/>
@@ -3251,7 +3340,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -3301,8 +3390,12 @@
       <c r="V29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
+      <c r="W29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X29" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y29" s="37"/>
       <c r="Z29" s="37"/>
       <c r="AA29" s="37"/>
@@ -3323,11 +3416,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -3377,8 +3470,12 @@
       <c r="V30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
+      <c r="W30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X30" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y30" s="37"/>
       <c r="Z30" s="37"/>
       <c r="AA30" s="37"/>
@@ -3399,11 +3496,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3453,8 +3550,12 @@
       <c r="V31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
+      <c r="W31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X31" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="37"/>
@@ -3479,7 +3580,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -3529,8 +3630,12 @@
       <c r="V32" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
+      <c r="W32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X32" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y32" s="37"/>
       <c r="Z32" s="37"/>
       <c r="AA32" s="37"/>
@@ -3551,11 +3656,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>21</v>
@@ -3605,8 +3710,12 @@
       <c r="V33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
+      <c r="W33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X33" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y33" s="37"/>
       <c r="Z33" s="37"/>
       <c r="AA33" s="37"/>
@@ -3627,11 +3736,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>21</v>
@@ -3681,8 +3790,12 @@
       <c r="V34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
+      <c r="W34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X34" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y34" s="37"/>
       <c r="Z34" s="37"/>
       <c r="AA34" s="37"/>
@@ -3707,7 +3820,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3757,8 +3870,12 @@
       <c r="V35" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
+      <c r="W35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X35" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y35" s="37"/>
       <c r="Z35" s="37"/>
       <c r="AA35" s="37"/>
@@ -3783,7 +3900,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>21</v>
@@ -3833,8 +3950,12 @@
       <c r="V36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
+      <c r="W36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y36" s="37"/>
       <c r="Z36" s="37"/>
       <c r="AA36" s="37"/>
@@ -3855,11 +3976,11 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3909,8 +4030,12 @@
       <c r="V37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
+      <c r="W37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X37" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y37" s="37"/>
       <c r="Z37" s="37"/>
       <c r="AA37" s="37"/>
@@ -3931,11 +4056,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
@@ -3985,8 +4110,12 @@
       <c r="V38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
+      <c r="W38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X38" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y38" s="37"/>
       <c r="Z38" s="37"/>
       <c r="AA38" s="37"/>
@@ -4007,11 +4136,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>21</v>
@@ -4061,8 +4190,12 @@
       <c r="V39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
+      <c r="W39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X39" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y39" s="37"/>
       <c r="Z39" s="37"/>
       <c r="AA39" s="37"/>
@@ -4083,11 +4216,11 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -4137,8 +4270,12 @@
       <c r="V40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
+      <c r="W40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X40" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y40" s="37"/>
       <c r="Z40" s="37"/>
       <c r="AA40" s="37"/>
@@ -4159,11 +4296,11 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>21</v>
@@ -4213,8 +4350,12 @@
       <c r="V41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
+      <c r="W41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X41" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y41" s="37"/>
       <c r="Z41" s="37"/>
       <c r="AA41" s="37"/>
@@ -4239,7 +4380,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>21</v>
@@ -4289,8 +4430,12 @@
       <c r="V42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
+      <c r="W42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X42" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y42" s="37"/>
       <c r="Z42" s="37"/>
       <c r="AA42" s="37"/>
@@ -4311,11 +4456,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -4365,8 +4510,12 @@
       <c r="V43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
+      <c r="W43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X43" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y43" s="37"/>
       <c r="Z43" s="37"/>
       <c r="AA43" s="37"/>
@@ -4391,7 +4540,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>21</v>
@@ -4441,8 +4590,12 @@
       <c r="V44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
+      <c r="W44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X44" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y44" s="37"/>
       <c r="Z44" s="37"/>
       <c r="AA44" s="37"/>
@@ -4463,7 +4616,7 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
@@ -4517,8 +4670,12 @@
       <c r="V45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
+      <c r="W45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X45" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y45" s="37"/>
       <c r="Z45" s="37"/>
       <c r="AA45" s="37"/>
@@ -4543,7 +4700,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>21</v>
@@ -4593,8 +4750,12 @@
       <c r="V46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
+      <c r="W46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X46" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y46" s="37"/>
       <c r="Z46" s="37"/>
       <c r="AA46" s="37"/>
@@ -4615,11 +4776,11 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>21</v>
@@ -4669,8 +4830,12 @@
       <c r="V47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
+      <c r="W47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X47" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y47" s="37"/>
       <c r="Z47" s="37"/>
       <c r="AA47" s="37"/>
@@ -4695,7 +4860,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>21</v>
@@ -4745,8 +4910,12 @@
       <c r="V48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
+      <c r="W48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X48" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y48" s="37"/>
       <c r="Z48" s="37"/>
       <c r="AA48" s="37"/>
@@ -4771,7 +4940,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>21</v>
@@ -4821,8 +4990,12 @@
       <c r="V49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
+      <c r="W49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X49" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y49" s="37"/>
       <c r="Z49" s="37"/>
       <c r="AA49" s="37"/>
@@ -4847,7 +5020,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>21</v>
@@ -4897,8 +5070,12 @@
       <c r="V50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
+      <c r="W50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X50" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y50" s="37"/>
       <c r="Z50" s="37"/>
       <c r="AA50" s="37"/>
@@ -4923,7 +5100,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>21</v>
@@ -4973,8 +5150,12 @@
       <c r="V51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
+      <c r="W51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X51" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y51" s="37"/>
       <c r="Z51" s="37"/>
       <c r="AA51" s="37"/>
@@ -4999,7 +5180,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>21</v>
@@ -5049,8 +5230,12 @@
       <c r="V52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
+      <c r="W52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X52" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y52" s="37"/>
       <c r="Z52" s="37"/>
       <c r="AA52" s="37"/>
@@ -5075,7 +5260,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>21</v>
@@ -5125,8 +5310,12 @@
       <c r="V53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
+      <c r="W53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X53" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y53" s="37"/>
       <c r="Z53" s="37"/>
       <c r="AA53" s="37"/>
@@ -5151,7 +5340,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>21</v>
@@ -5201,8 +5390,12 @@
       <c r="V54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
+      <c r="W54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X54" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y54" s="37"/>
       <c r="Z54" s="37"/>
       <c r="AA54" s="37"/>
@@ -5223,11 +5416,11 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>21</v>
@@ -5277,8 +5470,12 @@
       <c r="V55" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
+      <c r="W55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X55" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y55" s="37"/>
       <c r="Z55" s="37"/>
       <c r="AA55" s="37"/>
@@ -5299,11 +5496,11 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -5353,8 +5550,12 @@
       <c r="V56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
+      <c r="W56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X56" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y56" s="37"/>
       <c r="Z56" s="37"/>
       <c r="AA56" s="37"/>
@@ -5379,7 +5580,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -5429,8 +5630,12 @@
       <c r="V57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
+      <c r="W57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X57" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y57" s="37"/>
       <c r="Z57" s="37"/>
       <c r="AA57" s="37"/>
@@ -5451,11 +5656,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5505,8 +5710,12 @@
       <c r="V58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
+      <c r="W58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X58" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y58" s="37"/>
       <c r="Z58" s="37"/>
       <c r="AA58" s="37"/>
@@ -5527,11 +5736,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -5581,8 +5790,12 @@
       <c r="V59" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
+      <c r="W59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X59" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y59" s="37"/>
       <c r="Z59" s="37"/>
       <c r="AA59" s="37"/>
@@ -5607,7 +5820,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>21</v>
@@ -5657,8 +5870,12 @@
       <c r="V60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
+      <c r="W60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X60" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y60" s="37"/>
       <c r="Z60" s="37"/>
       <c r="AA60" s="37"/>
@@ -5679,11 +5896,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>21</v>
@@ -5733,8 +5950,12 @@
       <c r="V61" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
+      <c r="W61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X61" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y61" s="37"/>
       <c r="Z61" s="37"/>
       <c r="AA61" s="37"/>
@@ -5759,7 +5980,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>21</v>
@@ -5809,8 +6030,12 @@
       <c r="V62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
+      <c r="W62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X62" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y62" s="37"/>
       <c r="Z62" s="37"/>
       <c r="AA62" s="37"/>
@@ -5831,11 +6056,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>21</v>
@@ -5885,8 +6110,12 @@
       <c r="V63" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
+      <c r="W63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X63" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y63" s="37"/>
       <c r="Z63" s="37"/>
       <c r="AA63" s="37"/>
@@ -5911,7 +6140,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -5961,8 +6190,12 @@
       <c r="V64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
+      <c r="W64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X64" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y64" s="37"/>
       <c r="Z64" s="37"/>
       <c r="AA64" s="37"/>
@@ -5983,11 +6216,11 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>21</v>
@@ -6037,8 +6270,12 @@
       <c r="V65" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
+      <c r="W65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X65" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y65" s="37"/>
       <c r="Z65" s="37"/>
       <c r="AA65" s="37"/>
@@ -6059,11 +6296,11 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -6113,8 +6350,12 @@
       <c r="V66" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
+      <c r="W66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X66" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y66" s="37"/>
       <c r="Z66" s="37"/>
       <c r="AA66" s="37"/>
@@ -6139,7 +6380,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>21</v>
@@ -6189,8 +6430,12 @@
       <c r="V67" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
+      <c r="W67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X67" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y67" s="37"/>
       <c r="Z67" s="37"/>
       <c r="AA67" s="37"/>
@@ -6211,7 +6456,7 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
@@ -6265,8 +6510,12 @@
       <c r="V68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
+      <c r="W68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X68" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y68" s="37"/>
       <c r="Z68" s="37"/>
       <c r="AA68" s="37"/>
@@ -6291,7 +6540,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>21</v>
@@ -6341,8 +6590,12 @@
       <c r="V69" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
+      <c r="W69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X69" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y69" s="37"/>
       <c r="Z69" s="37"/>
       <c r="AA69" s="37"/>

--- a/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="146">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -81,13 +81,13 @@
     <t>P</t>
   </si>
   <si>
+    <t>2024PGP575</t>
+  </si>
+  <si>
+    <t>Agilan S</t>
+  </si>
+  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>2024PGP575</t>
-  </si>
-  <si>
-    <t>Agilan S</t>
   </si>
   <si>
     <t>2024DPM07</t>
@@ -952,18 +952,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCD5B4"/>
-          <bgColor rgb="FFFCD5B4"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -1181,11 +1170,10 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="7.13"/>
     <col customWidth="1" min="2" max="2" width="19.63"/>
-    <col customWidth="1" min="3" max="3" width="26.5"/>
-    <col customWidth="1" min="4" max="4" width="12.13"/>
-    <col customWidth="1" min="5" max="5" width="10.75"/>
-    <col customWidth="1" min="6" max="6" width="12.75"/>
-    <col customWidth="1" min="7" max="26" width="5.75"/>
+    <col customWidth="1" min="3" max="3" width="30.25"/>
+    <col customWidth="1" min="4" max="4" width="10.13"/>
+    <col customWidth="1" min="5" max="6" width="12.75"/>
+    <col customWidth="1" min="7" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1576,11 +1564,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1591,51 +1579,21 @@
       <c r="I7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="T7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="U7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="V7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
       <c r="Z7" s="30"/>
       <c r="AA7" s="30"/>
@@ -1646,76 +1604,46 @@
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>23</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X8" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
       <c r="Y8" s="37"/>
       <c r="Z8" s="37"/>
       <c r="AA8" s="37"/>
@@ -1736,11 +1664,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1749,53 +1677,23 @@
         <v>20</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="36" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
       <c r="AA9" s="37"/>
@@ -1816,66 +1714,36 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
       <c r="AA10" s="37"/>
@@ -1896,66 +1764,36 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X11" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
       <c r="Y11" s="37"/>
       <c r="Z11" s="37"/>
       <c r="AA11" s="37"/>
@@ -1976,66 +1814,36 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
       <c r="Y12" s="37"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
@@ -2056,66 +1864,36 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
       <c r="Y13" s="37"/>
       <c r="Z13" s="37"/>
       <c r="AA13" s="37"/>
@@ -2136,66 +1914,36 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X14" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="37"/>
       <c r="AA14" s="37"/>
@@ -2216,66 +1964,36 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X15" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
       <c r="Y15" s="37"/>
       <c r="Z15" s="37"/>
       <c r="AA15" s="37"/>
@@ -2296,66 +2014,36 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X16" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
       <c r="AA16" s="37"/>
@@ -2376,66 +2064,36 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X17" s="36" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
       <c r="Y17" s="37"/>
       <c r="Z17" s="37"/>
       <c r="AA17" s="37"/>
@@ -2456,66 +2114,36 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X18" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
       <c r="Z18" s="37"/>
       <c r="AA18" s="37"/>
@@ -2536,66 +2164,36 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
       <c r="Y19" s="37"/>
       <c r="Z19" s="37"/>
       <c r="AA19" s="37"/>
@@ -2616,12 +2214,12 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="34">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F20" s="34">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
       </c>
@@ -2631,51 +2229,21 @@
       <c r="I20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X20" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
       <c r="Y20" s="37"/>
       <c r="Z20" s="37"/>
       <c r="AA20" s="37"/>
@@ -2696,66 +2264,36 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X21" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
       <c r="Y21" s="37"/>
       <c r="Z21" s="37"/>
       <c r="AA21" s="37"/>
@@ -2776,11 +2314,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2791,51 +2329,21 @@
       <c r="I22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X22" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
       <c r="Y22" s="37"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="37"/>
@@ -2856,66 +2364,36 @@
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X23" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
       <c r="Y23" s="37"/>
       <c r="Z23" s="37"/>
       <c r="AA23" s="37"/>
@@ -2936,66 +2414,36 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X24" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
       <c r="Y24" s="37"/>
       <c r="Z24" s="37"/>
       <c r="AA24" s="37"/>
@@ -3016,11 +2464,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -3031,51 +2479,21 @@
       <c r="I25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
       <c r="Y25" s="37"/>
       <c r="Z25" s="37"/>
       <c r="AA25" s="37"/>
@@ -3096,12 +2514,12 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="34">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F26" s="34">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
       </c>
@@ -3111,51 +2529,21 @@
       <c r="I26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X26" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
       <c r="Y26" s="37"/>
       <c r="Z26" s="37"/>
       <c r="AA26" s="37"/>
@@ -3176,66 +2564,36 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X27" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
       <c r="Y27" s="37"/>
       <c r="Z27" s="37"/>
       <c r="AA27" s="37"/>
@@ -3256,11 +2614,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -3269,53 +2627,23 @@
         <v>20</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X28" s="36" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
       <c r="Y28" s="37"/>
       <c r="Z28" s="37"/>
       <c r="AA28" s="37"/>
@@ -3336,12 +2664,12 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="34">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F29" s="34">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
       </c>
@@ -3351,51 +2679,21 @@
       <c r="I29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X29" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
       <c r="Y29" s="37"/>
       <c r="Z29" s="37"/>
       <c r="AA29" s="37"/>
@@ -3416,11 +2714,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -3431,51 +2729,21 @@
       <c r="I30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X30" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
       <c r="Y30" s="37"/>
       <c r="Z30" s="37"/>
       <c r="AA30" s="37"/>
@@ -3496,11 +2764,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3511,51 +2779,21 @@
       <c r="I31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X31" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="37"/>
@@ -3576,11 +2814,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -3591,51 +2829,21 @@
       <c r="I32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X32" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
       <c r="Y32" s="37"/>
       <c r="Z32" s="37"/>
       <c r="AA32" s="37"/>
@@ -3656,66 +2864,36 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X33" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
       <c r="Y33" s="37"/>
       <c r="Z33" s="37"/>
       <c r="AA33" s="37"/>
@@ -3736,66 +2914,36 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X34" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
       <c r="Y34" s="37"/>
       <c r="Z34" s="37"/>
       <c r="AA34" s="37"/>
@@ -3816,12 +2964,12 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="34">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F35" s="34">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
       </c>
@@ -3831,51 +2979,21 @@
       <c r="I35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X35" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
       <c r="Y35" s="37"/>
       <c r="Z35" s="37"/>
       <c r="AA35" s="37"/>
@@ -3900,10 +3018,10 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H36" s="36" t="s">
         <v>20</v>
@@ -3911,51 +3029,21 @@
       <c r="I36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X36" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
       <c r="Y36" s="37"/>
       <c r="Z36" s="37"/>
       <c r="AA36" s="37"/>
@@ -3976,12 +3064,12 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="34">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F37" s="34">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
       </c>
@@ -3991,51 +3079,21 @@
       <c r="I37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X37" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
       <c r="Y37" s="37"/>
       <c r="Z37" s="37"/>
       <c r="AA37" s="37"/>
@@ -4056,66 +3114,36 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X38" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
       <c r="Y38" s="37"/>
       <c r="Z38" s="37"/>
       <c r="AA38" s="37"/>
@@ -4136,66 +3164,36 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X39" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
       <c r="Y39" s="37"/>
       <c r="Z39" s="37"/>
       <c r="AA39" s="37"/>
@@ -4216,66 +3214,36 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X40" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
       <c r="Y40" s="37"/>
       <c r="Z40" s="37"/>
       <c r="AA40" s="37"/>
@@ -4296,14 +3264,14 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H41" s="36" t="s">
         <v>20</v>
@@ -4311,51 +3279,21 @@
       <c r="I41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X41" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
       <c r="Y41" s="37"/>
       <c r="Z41" s="37"/>
       <c r="AA41" s="37"/>
@@ -4376,66 +3314,36 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X42" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
       <c r="Y42" s="37"/>
       <c r="Z42" s="37"/>
       <c r="AA42" s="37"/>
@@ -4456,11 +3364,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -4471,51 +3379,21 @@
       <c r="I43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X43" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
       <c r="Y43" s="37"/>
       <c r="Z43" s="37"/>
       <c r="AA43" s="37"/>
@@ -4540,62 +3418,32 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X44" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
       <c r="Y44" s="37"/>
       <c r="Z44" s="37"/>
       <c r="AA44" s="37"/>
@@ -4616,66 +3464,36 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X45" s="36" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
       <c r="Y45" s="37"/>
       <c r="Z45" s="37"/>
       <c r="AA45" s="37"/>
@@ -4696,66 +3514,36 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H46" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X46" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
       <c r="Y46" s="37"/>
       <c r="Z46" s="37"/>
       <c r="AA46" s="37"/>
@@ -4776,66 +3564,36 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X47" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
       <c r="Y47" s="37"/>
       <c r="Z47" s="37"/>
       <c r="AA47" s="37"/>
@@ -4856,66 +3614,36 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X48" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
       <c r="Y48" s="37"/>
       <c r="Z48" s="37"/>
       <c r="AA48" s="37"/>
@@ -4936,66 +3664,36 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X49" s="36" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
       <c r="Y49" s="37"/>
       <c r="Z49" s="37"/>
       <c r="AA49" s="37"/>
@@ -5020,62 +3718,32 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X50" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
       <c r="Y50" s="37"/>
       <c r="Z50" s="37"/>
       <c r="AA50" s="37"/>
@@ -5096,66 +3764,36 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X51" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
       <c r="Y51" s="37"/>
       <c r="Z51" s="37"/>
       <c r="AA51" s="37"/>
@@ -5176,66 +3814,36 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X52" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
       <c r="Y52" s="37"/>
       <c r="Z52" s="37"/>
       <c r="AA52" s="37"/>
@@ -5260,62 +3868,32 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X53" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
       <c r="Y53" s="37"/>
       <c r="Z53" s="37"/>
       <c r="AA53" s="37"/>
@@ -5336,66 +3914,36 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X54" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
       <c r="Y54" s="37"/>
       <c r="Z54" s="37"/>
       <c r="AA54" s="37"/>
@@ -5416,66 +3964,36 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X55" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
       <c r="Y55" s="37"/>
       <c r="Z55" s="37"/>
       <c r="AA55" s="37"/>
@@ -5496,11 +4014,11 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -5511,51 +4029,21 @@
       <c r="I56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q56" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X56" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
       <c r="Y56" s="37"/>
       <c r="Z56" s="37"/>
       <c r="AA56" s="37"/>
@@ -5576,11 +4064,11 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -5591,51 +4079,21 @@
       <c r="I57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X57" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
       <c r="Y57" s="37"/>
       <c r="Z57" s="37"/>
       <c r="AA57" s="37"/>
@@ -5656,12 +4114,12 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="34">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F58" s="34">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
       </c>
@@ -5671,51 +4129,21 @@
       <c r="I58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X58" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
       <c r="Y58" s="37"/>
       <c r="Z58" s="37"/>
       <c r="AA58" s="37"/>
@@ -5736,66 +4164,36 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I59" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X59" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
       <c r="Y59" s="37"/>
       <c r="Z59" s="37"/>
       <c r="AA59" s="37"/>
@@ -5816,14 +4214,14 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H60" s="36" t="s">
         <v>20</v>
@@ -5831,51 +4229,21 @@
       <c r="I60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M60" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O60" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X60" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
       <c r="Y60" s="37"/>
       <c r="Z60" s="37"/>
       <c r="AA60" s="37"/>
@@ -5896,66 +4264,36 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I61" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X61" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
       <c r="Y61" s="37"/>
       <c r="Z61" s="37"/>
       <c r="AA61" s="37"/>
@@ -5976,14 +4314,14 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G62" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H62" s="36" t="s">
         <v>20</v>
@@ -5991,51 +4329,21 @@
       <c r="I62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X62" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
       <c r="Y62" s="37"/>
       <c r="Z62" s="37"/>
       <c r="AA62" s="37"/>
@@ -6056,66 +4364,36 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I63" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X63" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
       <c r="Y63" s="37"/>
       <c r="Z63" s="37"/>
       <c r="AA63" s="37"/>
@@ -6136,66 +4414,36 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R64" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X64" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
       <c r="Y64" s="37"/>
       <c r="Z64" s="37"/>
       <c r="AA64" s="37"/>
@@ -6216,66 +4464,36 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X65" s="36" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
       <c r="Y65" s="37"/>
       <c r="Z65" s="37"/>
       <c r="AA65" s="37"/>
@@ -6296,11 +4514,11 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -6311,51 +4529,21 @@
       <c r="I66" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X66" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
       <c r="Y66" s="37"/>
       <c r="Z66" s="37"/>
       <c r="AA66" s="37"/>
@@ -6376,66 +4564,36 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I67" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X67" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
       <c r="Y67" s="37"/>
       <c r="Z67" s="37"/>
       <c r="AA67" s="37"/>
@@ -6456,66 +4614,36 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X68" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
       <c r="Y68" s="37"/>
       <c r="Z68" s="37"/>
       <c r="AA68" s="37"/>
@@ -6536,66 +4664,36 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H69" s="36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X69" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
       <c r="Y69" s="37"/>
       <c r="Z69" s="37"/>
       <c r="AA69" s="37"/>
@@ -6626,12 +4724,12 @@
       <c r="N70" s="37"/>
       <c r="O70" s="37"/>
       <c r="P70" s="37"/>
-      <c r="Q70" s="36"/>
+      <c r="Q70" s="37"/>
       <c r="R70" s="37"/>
       <c r="S70" s="37"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="36"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
       <c r="W70" s="37"/>
       <c r="X70" s="37"/>
       <c r="Y70" s="37"/>
@@ -6667,8 +4765,8 @@
       <c r="Q71" s="37"/>
       <c r="R71" s="37"/>
       <c r="S71" s="37"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
       <c r="V71" s="37"/>
       <c r="W71" s="37"/>
       <c r="X71" s="37"/>
@@ -8503,11 +6601,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G1:Z1000">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="146">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -81,13 +81,13 @@
     <t>P</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP575</t>
   </si>
   <si>
     <t>Agilan S</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2024DPM07</t>
@@ -952,7 +952,18 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCD5B4"/>
+          <bgColor rgb="FFFCD5B4"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1170,10 +1181,11 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="7.13"/>
     <col customWidth="1" min="2" max="2" width="19.63"/>
-    <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" min="4" max="4" width="10.13"/>
-    <col customWidth="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" min="7" max="26" width="10.75"/>
+    <col customWidth="1" min="3" max="3" width="26.5"/>
+    <col customWidth="1" min="4" max="4" width="12.13"/>
+    <col customWidth="1" min="5" max="5" width="10.75"/>
+    <col customWidth="1" min="6" max="6" width="12.75"/>
+    <col customWidth="1" min="7" max="26" width="5.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1564,11 +1576,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1579,23 +1591,57 @@
       <c r="I7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
+      <c r="J7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z7" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="AA7" s="30"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1604,48 +1650,82 @@
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
+      <c r="J8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA8" s="37"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1664,11 +1744,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1677,25 +1757,59 @@
         <v>20</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA9" s="37"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1714,38 +1828,72 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
+      <c r="J10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA10" s="37"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1764,38 +1912,72 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
+      <c r="J11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA11" s="37"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -1814,38 +1996,72 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
+      <c r="J12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA12" s="37"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -1864,38 +2080,72 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
+      <c r="J13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA13" s="37"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -1914,38 +2164,72 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
+      <c r="J14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z14" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA14" s="37"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -1964,38 +2248,72 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
+      <c r="J15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z15" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA15" s="37"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2014,38 +2332,72 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
+      <c r="J16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA16" s="37"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2064,38 +2416,72 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA17" s="37"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2114,38 +2500,72 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
+      <c r="J18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z18" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA18" s="37"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -2164,38 +2584,72 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
+      <c r="J19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z19" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA19" s="37"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2214,11 +2668,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2229,23 +2683,57 @@
       <c r="I20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
+      <c r="J20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z20" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA20" s="37"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2264,38 +2752,72 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
+      <c r="J21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z21" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA21" s="37"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2314,11 +2836,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2329,23 +2851,57 @@
       <c r="I22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
+      <c r="J22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z22" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA22" s="37"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2364,38 +2920,72 @@
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="J23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z23" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA23" s="37"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2414,38 +3004,72 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
+      <c r="J24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z24" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA24" s="37"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -2464,11 +3088,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2479,23 +3103,57 @@
       <c r="I25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
+      <c r="J25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA25" s="37"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -2514,11 +3172,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2529,23 +3187,57 @@
       <c r="I26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
+      <c r="J26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z26" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA26" s="37"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -2564,38 +3256,72 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
+      <c r="J27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z27" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA27" s="37"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -2614,11 +3340,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -2627,25 +3353,59 @@
         <v>20</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z28" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA28" s="37"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -2664,11 +3424,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -2679,23 +3439,57 @@
       <c r="I29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
+      <c r="J29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z29" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA29" s="37"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -2714,11 +3508,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -2729,23 +3523,57 @@
       <c r="I30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
+      <c r="J30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA30" s="37"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -2764,11 +3592,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -2779,23 +3607,57 @@
       <c r="I31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
+      <c r="J31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z31" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA31" s="37"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -2814,11 +3676,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -2829,23 +3691,57 @@
       <c r="I32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
+      <c r="J32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z32" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA32" s="37"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -2864,38 +3760,72 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
+      <c r="J33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z33" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA33" s="37"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -2914,38 +3844,72 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
+      <c r="J34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z34" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA34" s="37"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -2964,11 +3928,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -2979,23 +3943,57 @@
       <c r="I35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
+      <c r="J35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z35" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA35" s="37"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3018,10 +4016,10 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H36" s="36" t="s">
         <v>20</v>
@@ -3029,23 +4027,57 @@
       <c r="I36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
+      <c r="J36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z36" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA36" s="37"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -3064,11 +4096,11 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3079,23 +4111,57 @@
       <c r="I37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
+      <c r="J37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z37" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA37" s="37"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -3114,38 +4180,72 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
+      <c r="J38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z38" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA38" s="37"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -3164,38 +4264,72 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
+      <c r="J39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z39" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA39" s="37"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -3214,38 +4348,72 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
+      <c r="J40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z40" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA40" s="37"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -3264,14 +4432,14 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H41" s="36" t="s">
         <v>20</v>
@@ -3279,23 +4447,57 @@
       <c r="I41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
+      <c r="J41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z41" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA41" s="37"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -3314,38 +4516,72 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
+      <c r="J42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z42" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA42" s="37"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -3364,11 +4600,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -3379,23 +4615,57 @@
       <c r="I43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
+      <c r="J43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z43" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA43" s="37"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -3418,34 +4688,68 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
+      <c r="J44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z44" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA44" s="37"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -3464,38 +4768,72 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z45" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA45" s="37"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -3514,38 +4852,72 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H46" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
+      <c r="J46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z46" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA46" s="37"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -3564,38 +4936,72 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
+      <c r="J47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z47" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA47" s="37"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -3614,38 +5020,72 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
+      <c r="J48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z48" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA48" s="37"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -3664,38 +5104,72 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="J49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z49" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA49" s="37"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -3718,34 +5192,68 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
+      <c r="J50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z50" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA50" s="37"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -3764,38 +5272,72 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="37"/>
-      <c r="Z51" s="37"/>
+      <c r="J51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z51" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA51" s="37"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -3814,38 +5356,72 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="37"/>
+      <c r="J52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z52" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA52" s="37"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -3864,38 +5440,72 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="37"/>
+      <c r="J53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z53" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA53" s="37"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -3914,38 +5524,72 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="37"/>
+      <c r="J54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z54" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA54" s="37"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -3964,38 +5608,72 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
+      <c r="J55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z55" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA55" s="37"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -4014,11 +5692,11 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -4029,23 +5707,57 @@
       <c r="I56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="37"/>
+      <c r="J56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z56" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA56" s="37"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -4064,11 +5776,11 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -4079,23 +5791,57 @@
       <c r="I57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
+      <c r="J57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z57" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA57" s="37"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -4114,11 +5860,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4129,23 +5875,57 @@
       <c r="I58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="37"/>
-      <c r="Z58" s="37"/>
+      <c r="J58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z58" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA58" s="37"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -4164,38 +5944,72 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I59" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
-      <c r="Z59" s="37"/>
+      <c r="J59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z59" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA59" s="37"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -4214,14 +6028,14 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H60" s="36" t="s">
         <v>20</v>
@@ -4229,23 +6043,57 @@
       <c r="I60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
-      <c r="Z60" s="37"/>
+      <c r="J60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z60" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA60" s="37"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -4264,38 +6112,72 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I61" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="37"/>
-      <c r="Z61" s="37"/>
+      <c r="J61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z61" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA61" s="37"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -4314,14 +6196,14 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G62" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H62" s="36" t="s">
         <v>20</v>
@@ -4329,23 +6211,57 @@
       <c r="I62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
-      <c r="Z62" s="37"/>
+      <c r="J62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z62" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA62" s="37"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -4364,38 +6280,72 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I63" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
-      <c r="Y63" s="37"/>
-      <c r="Z63" s="37"/>
+      <c r="J63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z63" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA63" s="37"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -4414,38 +6364,72 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="37"/>
+      <c r="J64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z64" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA64" s="37"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -4464,38 +6448,72 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="J65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z65" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA65" s="37"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -4514,11 +6532,11 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -4529,23 +6547,57 @@
       <c r="I66" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="37"/>
-      <c r="Z66" s="37"/>
+      <c r="J66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z66" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA66" s="37"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -4564,38 +6616,72 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I67" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="37"/>
-      <c r="Z67" s="37"/>
+      <c r="J67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z67" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA67" s="37"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -4614,38 +6700,72 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="37"/>
-      <c r="Z68" s="37"/>
+      <c r="J68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z68" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA68" s="37"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
@@ -4664,38 +6784,72 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H69" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
-      <c r="Z69" s="37"/>
+      <c r="J69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z69" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA69" s="37"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -4724,12 +6878,12 @@
       <c r="N70" s="37"/>
       <c r="O70" s="37"/>
       <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
+      <c r="Q70" s="36"/>
       <c r="R70" s="37"/>
       <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
+      <c r="T70" s="36"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="36"/>
       <c r="W70" s="37"/>
       <c r="X70" s="37"/>
       <c r="Y70" s="37"/>
@@ -4765,8 +6919,8 @@
       <c r="Q71" s="37"/>
       <c r="R71" s="37"/>
       <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
       <c r="V71" s="37"/>
       <c r="W71" s="37"/>
       <c r="X71" s="37"/>
@@ -6601,6 +8755,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <conditionalFormatting sqref="G1:Z1000">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="146">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
@@ -1636,12 +1636,8 @@
       <c r="X7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z7" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
       <c r="AA7" s="30"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1664,7 +1660,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>21</v>
@@ -1720,12 +1716,8 @@
       <c r="X8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
       <c r="AA8" s="37"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1748,7 +1740,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1804,12 +1796,8 @@
       <c r="X9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
       <c r="AA9" s="37"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1832,7 +1820,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>21</v>
@@ -1888,12 +1876,8 @@
       <c r="X10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
       <c r="AA10" s="37"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1916,7 +1900,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>21</v>
@@ -1972,12 +1956,8 @@
       <c r="X11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z11" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
       <c r="AA11" s="37"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -1996,11 +1976,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>21</v>
@@ -2056,12 +2036,8 @@
       <c r="X12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -2084,7 +2060,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>21</v>
@@ -2140,12 +2116,8 @@
       <c r="X13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
       <c r="AA13" s="37"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -2164,11 +2136,11 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2224,12 +2196,8 @@
       <c r="X14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z14" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
       <c r="AA14" s="37"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2252,7 +2220,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>21</v>
@@ -2308,12 +2276,8 @@
       <c r="X15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z15" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
       <c r="AA15" s="37"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2332,11 +2296,11 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>21</v>
@@ -2392,12 +2356,8 @@
       <c r="X16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z16" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
       <c r="AA16" s="37"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2420,7 +2380,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2476,12 +2436,8 @@
       <c r="X17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z17" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
       <c r="AA17" s="37"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2500,11 +2456,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>21</v>
@@ -2560,12 +2516,8 @@
       <c r="X18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z18" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
       <c r="AA18" s="37"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -2588,7 +2540,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>21</v>
@@ -2644,12 +2596,8 @@
       <c r="X19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z19" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
       <c r="AA19" s="37"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2668,11 +2616,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2728,12 +2676,8 @@
       <c r="X20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z20" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
       <c r="AA20" s="37"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2756,7 +2700,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -2812,12 +2756,8 @@
       <c r="X21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z21" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
       <c r="AA21" s="37"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2840,7 +2780,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2896,12 +2836,8 @@
       <c r="X22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z22" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
       <c r="AA22" s="37"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2924,7 +2860,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>21</v>
@@ -2980,12 +2916,8 @@
       <c r="X23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z23" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
       <c r="AA23" s="37"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -3008,7 +2940,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>21</v>
@@ -3064,12 +2996,8 @@
       <c r="X24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z24" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
       <c r="AA24" s="37"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -3092,7 +3020,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -3148,12 +3076,8 @@
       <c r="X25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z25" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
       <c r="AA25" s="37"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3176,7 +3100,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -3232,12 +3156,8 @@
       <c r="X26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z26" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
       <c r="AA26" s="37"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3260,7 +3180,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>21</v>
@@ -3316,12 +3236,8 @@
       <c r="X27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z27" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
       <c r="AA27" s="37"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3344,7 +3260,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -3400,12 +3316,8 @@
       <c r="X28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z28" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
       <c r="AA28" s="37"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3428,7 +3340,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -3484,12 +3396,8 @@
       <c r="X29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z29" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
       <c r="AA29" s="37"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3512,7 +3420,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -3568,12 +3476,8 @@
       <c r="X30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z30" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
       <c r="AA30" s="37"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3592,11 +3496,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3652,12 +3556,8 @@
       <c r="X31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z31" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
       <c r="AA31" s="37"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3680,7 +3580,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -3736,12 +3636,8 @@
       <c r="X32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z32" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
       <c r="AA32" s="37"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3764,7 +3660,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>21</v>
@@ -3820,12 +3716,8 @@
       <c r="X33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z33" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
       <c r="AA33" s="37"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3848,7 +3740,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>21</v>
@@ -3904,12 +3796,8 @@
       <c r="X34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z34" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
       <c r="AA34" s="37"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3928,11 +3816,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3988,12 +3876,8 @@
       <c r="X35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z35" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
       <c r="AA35" s="37"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -4016,7 +3900,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>21</v>
@@ -4072,12 +3956,8 @@
       <c r="X36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z36" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
       <c r="AA36" s="37"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -4100,7 +3980,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -4156,12 +4036,8 @@
       <c r="X37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z37" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
       <c r="AA37" s="37"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -4180,11 +4056,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
@@ -4240,12 +4116,8 @@
       <c r="X38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z38" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
       <c r="AA38" s="37"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4268,7 +4140,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>21</v>
@@ -4324,12 +4196,8 @@
       <c r="X39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z39" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
       <c r="AA39" s="37"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -4352,7 +4220,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -4408,12 +4276,8 @@
       <c r="X40" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z40" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
       <c r="AA40" s="37"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4432,11 +4296,11 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>21</v>
@@ -4490,14 +4354,10 @@
         <v>20</v>
       </c>
       <c r="X41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z41" s="36" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
       <c r="AA41" s="37"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4516,11 +4376,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>21</v>
@@ -4576,12 +4436,8 @@
       <c r="X42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z42" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
       <c r="AA42" s="37"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4604,7 +4460,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -4660,12 +4516,8 @@
       <c r="X43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z43" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
       <c r="AA43" s="37"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4688,7 +4540,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>21</v>
@@ -4744,12 +4596,8 @@
       <c r="X44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z44" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
       <c r="AA44" s="37"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4768,7 +4616,7 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
@@ -4828,12 +4676,8 @@
       <c r="X45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z45" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
       <c r="AA45" s="37"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4856,7 +4700,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>21</v>
@@ -4912,12 +4756,8 @@
       <c r="X46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z46" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
       <c r="AA46" s="37"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4936,11 +4776,11 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>21</v>
@@ -4996,12 +4836,8 @@
       <c r="X47" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z47" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
       <c r="AA47" s="37"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -5020,11 +4856,11 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>21</v>
@@ -5080,12 +4916,8 @@
       <c r="X48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z48" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
       <c r="AA48" s="37"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -5108,7 +4940,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>21</v>
@@ -5164,12 +4996,8 @@
       <c r="X49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z49" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
       <c r="AA49" s="37"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -5192,7 +5020,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>21</v>
@@ -5248,12 +5076,8 @@
       <c r="X50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z50" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
       <c r="AA50" s="37"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -5272,11 +5096,11 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>21</v>
@@ -5332,12 +5156,8 @@
       <c r="X51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z51" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
       <c r="AA51" s="37"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -5356,11 +5176,11 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>21</v>
@@ -5416,12 +5236,8 @@
       <c r="X52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z52" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
       <c r="AA52" s="37"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5440,11 +5256,11 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>21</v>
@@ -5500,12 +5316,8 @@
       <c r="X53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z53" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
       <c r="AA53" s="37"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5528,7 +5340,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>21</v>
@@ -5584,12 +5396,8 @@
       <c r="X54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z54" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="37"/>
       <c r="AA54" s="37"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5612,7 +5420,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>21</v>
@@ -5668,12 +5476,8 @@
       <c r="X55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z55" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37"/>
       <c r="AA55" s="37"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5696,7 +5500,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -5752,12 +5556,8 @@
       <c r="X56" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z56" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="37"/>
       <c r="AA56" s="37"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5780,7 +5580,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -5836,12 +5636,8 @@
       <c r="X57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z57" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="37"/>
       <c r="AA57" s="37"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5864,7 +5660,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5920,12 +5716,8 @@
       <c r="X58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z58" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="37"/>
       <c r="AA58" s="37"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5948,7 +5740,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -6004,12 +5796,8 @@
       <c r="X59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z59" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
       <c r="AA59" s="37"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -6032,7 +5820,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>21</v>
@@ -6088,12 +5876,8 @@
       <c r="X60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z60" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
       <c r="AA60" s="37"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -6116,7 +5900,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>21</v>
@@ -6172,12 +5956,8 @@
       <c r="X61" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z61" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y61" s="37"/>
+      <c r="Z61" s="37"/>
       <c r="AA61" s="37"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -6200,7 +5980,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>21</v>
@@ -6256,12 +6036,8 @@
       <c r="X62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z62" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="37"/>
       <c r="AA62" s="37"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -6284,7 +6060,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>21</v>
@@ -6340,12 +6116,8 @@
       <c r="X63" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z63" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y63" s="37"/>
+      <c r="Z63" s="37"/>
       <c r="AA63" s="37"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -6364,11 +6136,11 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -6424,12 +6196,8 @@
       <c r="X64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z64" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y64" s="37"/>
+      <c r="Z64" s="37"/>
       <c r="AA64" s="37"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -6452,7 +6220,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>21</v>
@@ -6508,12 +6276,8 @@
       <c r="X65" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z65" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y65" s="37"/>
+      <c r="Z65" s="37"/>
       <c r="AA65" s="37"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -6532,11 +6296,11 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -6592,12 +6356,8 @@
       <c r="X66" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z66" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="37"/>
       <c r="AA66" s="37"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -6620,7 +6380,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>21</v>
@@ -6676,12 +6436,8 @@
       <c r="X67" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z67" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37"/>
       <c r="AA67" s="37"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -6704,7 +6460,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>21</v>
@@ -6760,12 +6516,8 @@
       <c r="X68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z68" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y68" s="37"/>
+      <c r="Z68" s="37"/>
       <c r="AA68" s="37"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
@@ -6784,11 +6536,11 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>21</v>
@@ -6844,12 +6596,8 @@
       <c r="X69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z69" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y69" s="37"/>
+      <c r="Z69" s="37"/>
       <c r="AA69" s="37"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
